--- a/test-output/QuotaAppReport.xlsx
+++ b/test-output/QuotaAppReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romadonz/Documents/Zanuar/DANA/G2Lab/FinalProject/QuotaAppTest/test-output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A7CD82-04B2-C245-9199-3A4D3963F43B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130A7829-625F-3240-BE7D-AADD995C26FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="940" windowWidth="27640" windowHeight="15960" activeTab="3" xr2:uid="{8A0959B3-C4D0-5A40-8224-AEEF2FE27BFC}"/>
+    <workbookView xWindow="780" yWindow="940" windowWidth="27640" windowHeight="15960" activeTab="4" xr2:uid="{8A0959B3-C4D0-5A40-8224-AEEF2FE27BFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2237" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9091" uniqueCount="201">
   <si>
     <t>negative case - invalid phone number and password</t>
   </si>
@@ -568,6 +568,84 @@
   </si>
   <si>
     <t>phone number</t>
+  </si>
+  <si>
+    <t>Invalid number</t>
+  </si>
+  <si>
+    <t>positive case - valid phone number</t>
+  </si>
+  <si>
+    <t>Simpati</t>
+  </si>
+  <si>
+    <t>Indosat</t>
+  </si>
+  <si>
+    <t>+6287851627898</t>
+  </si>
+  <si>
+    <t>XL</t>
+  </si>
+  <si>
+    <t>+6282235671598</t>
+  </si>
+  <si>
+    <t>+6285856789112</t>
+  </si>
+  <si>
+    <t>Mentari</t>
+  </si>
+  <si>
+    <t>negative case - invalid phone number (not numerical only)</t>
+  </si>
+  <si>
+    <t>+6281absurdomor</t>
+  </si>
+  <si>
+    <t>negative case - invalid phone number (blank)</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>+628125293039X</t>
+  </si>
+  <si>
+    <t>+6281252C30398</t>
+  </si>
+  <si>
+    <t>081252930xyz</t>
+  </si>
+  <si>
+    <t>0812529M5671</t>
+  </si>
+  <si>
+    <t>notnumericalonly</t>
+  </si>
+  <si>
+    <t>+6281235671985</t>
+  </si>
+  <si>
+    <t>+6281375654291</t>
+  </si>
+  <si>
+    <t>+6287755691524</t>
+  </si>
+  <si>
+    <t>+6287856901012</t>
+  </si>
+  <si>
+    <t>+6287736042135</t>
+  </si>
+  <si>
+    <t>+628123456789101112222</t>
+  </si>
+  <si>
+    <t>negative case - invalid phone number format (exceed 15 characters)</t>
+  </si>
+  <si>
+    <t>size must be between 0 and 20</t>
   </si>
 </sst>
 </file>
@@ -1058,10 +1136,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>199</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>198</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -1959,7 +2037,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D11481D-681A-8245-B161-4E07C0F4A35F}">
-  <dimension ref="A1:P99"/>
+  <dimension ref="A1:P200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -1984,7 +2062,7 @@
     <col min="16" max="16" bestFit="true" customWidth="true" width="8.5" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -2034,7 +2112,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>112</v>
       </c>
@@ -2060,7 +2138,7 @@
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J2" t="s">
         <v>56</v>
@@ -2084,7 +2162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>113</v>
       </c>
@@ -2098,7 +2176,7 @@
         <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>198</v>
       </c>
       <c r="F3" t="s">
         <v>59</v>
@@ -2110,7 +2188,7 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="J3" t="s">
         <v>56</v>
@@ -2134,7 +2212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>114</v>
       </c>
@@ -2160,7 +2238,7 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J4" t="s">
         <v>56</v>
@@ -2184,7 +2262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>115</v>
       </c>
@@ -2210,7 +2288,7 @@
         <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5" t="s">
         <v>56</v>
@@ -2234,7 +2312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>116</v>
       </c>
@@ -2260,7 +2338,7 @@
         <v>3</v>
       </c>
       <c r="I6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J6" t="s">
         <v>56</v>
@@ -2281,10 +2359,10 @@
         <v>4</v>
       </c>
       <c r="P6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>117</v>
       </c>
@@ -2310,7 +2388,7 @@
         <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J7" t="s">
         <v>56</v>
@@ -2334,7 +2412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>118</v>
       </c>
@@ -2360,7 +2438,7 @@
         <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J8" t="s">
         <v>56</v>
@@ -2384,7 +2462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>119</v>
       </c>
@@ -2434,7 +2512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>120</v>
       </c>
@@ -2484,7 +2562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>121</v>
       </c>
@@ -2498,7 +2576,7 @@
         <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>198</v>
       </c>
       <c r="F11" t="s">
         <v>59</v>
@@ -2534,7 +2612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>122</v>
       </c>
@@ -2584,7 +2662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>123</v>
       </c>
@@ -2634,7 +2712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>124</v>
       </c>
@@ -2684,7 +2762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>125</v>
       </c>
@@ -2734,7 +2812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>126</v>
       </c>
@@ -2784,7 +2862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>127</v>
       </c>
@@ -2834,7 +2912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>128</v>
       </c>
@@ -2860,7 +2938,7 @@
         <v>3</v>
       </c>
       <c r="I18" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J18" t="s">
         <v>56</v>
@@ -2884,7 +2962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>129</v>
       </c>
@@ -2898,7 +2976,7 @@
         <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>198</v>
       </c>
       <c r="F19" t="s">
         <v>64</v>
@@ -2910,7 +2988,7 @@
         <v>3</v>
       </c>
       <c r="I19" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J19" t="s">
         <v>56</v>
@@ -2934,7 +3012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>130</v>
       </c>
@@ -2960,7 +3038,7 @@
         <v>3</v>
       </c>
       <c r="I20" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J20" t="s">
         <v>56</v>
@@ -2984,7 +3062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>131</v>
       </c>
@@ -3010,7 +3088,7 @@
         <v>3</v>
       </c>
       <c r="I21" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J21" t="s">
         <v>56</v>
@@ -3034,7 +3112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>132</v>
       </c>
@@ -3060,7 +3138,7 @@
         <v>3</v>
       </c>
       <c r="I22" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J22" t="s">
         <v>56</v>
@@ -3084,7 +3162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>133</v>
       </c>
@@ -3110,7 +3188,7 @@
         <v>3</v>
       </c>
       <c r="I23" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J23" t="s">
         <v>56</v>
@@ -3134,7 +3212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>134</v>
       </c>
@@ -3160,7 +3238,7 @@
         <v>3</v>
       </c>
       <c r="I24" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J24" t="s">
         <v>56</v>
@@ -3184,7 +3262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>135</v>
       </c>
@@ -3210,7 +3288,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J25" t="s">
         <v>56</v>
@@ -3234,7 +3312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>136</v>
       </c>
@@ -3260,7 +3338,7 @@
         <v>3</v>
       </c>
       <c r="I26" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J26" t="s">
         <v>56</v>
@@ -3284,7 +3362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" t="s">
         <v>137</v>
       </c>
@@ -3298,7 +3376,7 @@
         <v>65</v>
       </c>
       <c r="E27" t="s">
-        <v>19</v>
+        <v>198</v>
       </c>
       <c r="F27" t="s">
         <v>69</v>
@@ -3310,7 +3388,7 @@
         <v>3</v>
       </c>
       <c r="I27" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J27" t="s">
         <v>56</v>
@@ -3334,7 +3412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" t="s">
         <v>138</v>
       </c>
@@ -3360,7 +3438,7 @@
         <v>3</v>
       </c>
       <c r="I28" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J28" t="s">
         <v>56</v>
@@ -3384,7 +3462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="A29" t="s">
         <v>139</v>
       </c>
@@ -3434,7 +3512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="A30" t="s">
         <v>140</v>
       </c>
@@ -3484,7 +3562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="A31" t="s">
         <v>141</v>
       </c>
@@ -3534,7 +3612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="A32" t="s">
         <v>142</v>
       </c>
@@ -3584,7 +3662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="A33" t="s">
         <v>112</v>
       </c>
@@ -3634,7 +3712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="A34" t="s">
         <v>143</v>
       </c>
@@ -3660,7 +3738,7 @@
         <v>3</v>
       </c>
       <c r="I34" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J34" t="s">
         <v>56</v>
@@ -3684,7 +3762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="A35" t="s">
         <v>144</v>
       </c>
@@ -3698,7 +3776,7 @@
         <v>58</v>
       </c>
       <c r="E35" t="s">
-        <v>19</v>
+        <v>198</v>
       </c>
       <c r="F35" t="s">
         <v>59</v>
@@ -3710,7 +3788,7 @@
         <v>3</v>
       </c>
       <c r="I35" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J35" t="s">
         <v>56</v>
@@ -3731,10 +3809,10 @@
         <v>4</v>
       </c>
       <c r="P35" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" t="s">
         <v>145</v>
       </c>
@@ -3760,7 +3838,7 @@
         <v>3</v>
       </c>
       <c r="I36" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J36" t="s">
         <v>56</v>
@@ -3784,7 +3862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="A37" t="s">
         <v>146</v>
       </c>
@@ -3810,7 +3888,7 @@
         <v>3</v>
       </c>
       <c r="I37" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J37" t="s">
         <v>56</v>
@@ -3834,7 +3912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="A38" t="s">
         <v>147</v>
       </c>
@@ -3860,7 +3938,7 @@
         <v>3</v>
       </c>
       <c r="I38" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J38" t="s">
         <v>56</v>
@@ -3881,10 +3959,10 @@
         <v>4</v>
       </c>
       <c r="P38" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" t="s">
         <v>148</v>
       </c>
@@ -3910,7 +3988,7 @@
         <v>3</v>
       </c>
       <c r="I39" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J39" t="s">
         <v>56</v>
@@ -3934,7 +4012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="A40" t="s">
         <v>149</v>
       </c>
@@ -3960,7 +4038,7 @@
         <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J40" t="s">
         <v>56</v>
@@ -3984,7 +4062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="A41" t="s">
         <v>150</v>
       </c>
@@ -4010,7 +4088,7 @@
         <v>3</v>
       </c>
       <c r="I41" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J41" t="s">
         <v>56</v>
@@ -4031,10 +4109,10 @@
         <v>4</v>
       </c>
       <c r="P41" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" t="s">
         <v>151</v>
       </c>
@@ -4060,7 +4138,7 @@
         <v>3</v>
       </c>
       <c r="I42" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J42" t="s">
         <v>56</v>
@@ -4084,7 +4162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="A43" t="s">
         <v>152</v>
       </c>
@@ -4098,7 +4176,7 @@
         <v>65</v>
       </c>
       <c r="E43" t="s">
-        <v>19</v>
+        <v>198</v>
       </c>
       <c r="F43" t="s">
         <v>59</v>
@@ -4110,7 +4188,7 @@
         <v>3</v>
       </c>
       <c r="I43" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J43" t="s">
         <v>56</v>
@@ -4134,7 +4212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="A44" t="s">
         <v>153</v>
       </c>
@@ -4160,7 +4238,7 @@
         <v>3</v>
       </c>
       <c r="I44" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J44" t="s">
         <v>56</v>
@@ -4181,10 +4259,10 @@
         <v>4</v>
       </c>
       <c r="P44" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" t="s">
         <v>154</v>
       </c>
@@ -4198,7 +4276,7 @@
         <v>65</v>
       </c>
       <c r="E45" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="F45" t="s">
         <v>60</v>
@@ -4210,7 +4288,7 @@
         <v>3</v>
       </c>
       <c r="I45" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J45" t="s">
         <v>56</v>
@@ -4231,10 +4309,10 @@
         <v>4</v>
       </c>
       <c r="P45" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" t="s">
         <v>155</v>
       </c>
@@ -4260,7 +4338,7 @@
         <v>3</v>
       </c>
       <c r="I46" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J46" t="s">
         <v>56</v>
@@ -4284,7 +4362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="A47" t="s">
         <v>156</v>
       </c>
@@ -4310,7 +4388,7 @@
         <v>3</v>
       </c>
       <c r="I47" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J47" t="s">
         <v>56</v>
@@ -4331,10 +4409,10 @@
         <v>4</v>
       </c>
       <c r="P47" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" t="s">
         <v>157</v>
       </c>
@@ -4360,7 +4438,7 @@
         <v>3</v>
       </c>
       <c r="I48" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J48" t="s">
         <v>56</v>
@@ -4384,7 +4462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="A49" t="s">
         <v>158</v>
       </c>
@@ -4410,7 +4488,7 @@
         <v>3</v>
       </c>
       <c r="I49" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J49" t="s">
         <v>56</v>
@@ -4431,10 +4509,10 @@
         <v>4</v>
       </c>
       <c r="P49" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" t="s">
         <v>159</v>
       </c>
@@ -4460,7 +4538,7 @@
         <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J50" t="s">
         <v>56</v>
@@ -4484,7 +4562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="A51" t="s">
         <v>160</v>
       </c>
@@ -4498,7 +4576,7 @@
         <v>58</v>
       </c>
       <c r="E51" t="s">
-        <v>19</v>
+        <v>198</v>
       </c>
       <c r="F51" t="s">
         <v>64</v>
@@ -4510,7 +4588,7 @@
         <v>3</v>
       </c>
       <c r="I51" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J51" t="s">
         <v>56</v>
@@ -4534,7 +4612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="A52" t="s">
         <v>161</v>
       </c>
@@ -4560,7 +4638,7 @@
         <v>3</v>
       </c>
       <c r="I52" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J52" t="s">
         <v>56</v>
@@ -4584,7 +4662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="A53" t="s">
         <v>162</v>
       </c>
@@ -4610,7 +4688,7 @@
         <v>3</v>
       </c>
       <c r="I53" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J53" t="s">
         <v>56</v>
@@ -4634,7 +4712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="A54" t="s">
         <v>163</v>
       </c>
@@ -4660,7 +4738,7 @@
         <v>3</v>
       </c>
       <c r="I54" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J54" t="s">
         <v>56</v>
@@ -4684,7 +4762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="A55" t="s">
         <v>164</v>
       </c>
@@ -4710,7 +4788,7 @@
         <v>3</v>
       </c>
       <c r="I55" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J55" t="s">
         <v>56</v>
@@ -4734,7 +4812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="A56" t="s">
         <v>165</v>
       </c>
@@ -4760,7 +4838,7 @@
         <v>3</v>
       </c>
       <c r="I56" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J56" t="s">
         <v>56</v>
@@ -4784,7 +4862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="A57" t="s">
         <v>67</v>
       </c>
@@ -4810,7 +4888,7 @@
         <v>3</v>
       </c>
       <c r="I57" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J57" t="s">
         <v>56</v>
@@ -4834,7 +4912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="A58" t="s">
         <v>166</v>
       </c>
@@ -4860,7 +4938,7 @@
         <v>3</v>
       </c>
       <c r="I58" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J58" t="s">
         <v>56</v>
@@ -4884,7 +4962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="A59" t="s">
         <v>167</v>
       </c>
@@ -4898,7 +4976,7 @@
         <v>65</v>
       </c>
       <c r="E59" t="s">
-        <v>19</v>
+        <v>198</v>
       </c>
       <c r="F59" t="s">
         <v>69</v>
@@ -4910,7 +4988,7 @@
         <v>3</v>
       </c>
       <c r="I59" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J59" t="s">
         <v>56</v>
@@ -4934,7 +5012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="A60" t="s">
         <v>168</v>
       </c>
@@ -4960,7 +5038,7 @@
         <v>3</v>
       </c>
       <c r="I60" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J60" t="s">
         <v>56</v>
@@ -4984,7 +5062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -4998,7 +5076,7 @@
         <v>65</v>
       </c>
       <c r="E61" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="F61" t="s">
         <v>60</v>
@@ -5010,7 +5088,7 @@
         <v>3</v>
       </c>
       <c r="I61" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J61" t="s">
         <v>56</v>
@@ -5031,10 +5109,10 @@
         <v>4</v>
       </c>
       <c r="P61" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
       <c r="A62" t="s">
         <v>169</v>
       </c>
@@ -5060,7 +5138,7 @@
         <v>3</v>
       </c>
       <c r="I62" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J62" t="s">
         <v>56</v>
@@ -5084,7 +5162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="A63" t="s">
         <v>170</v>
       </c>
@@ -5110,7 +5188,7 @@
         <v>3</v>
       </c>
       <c r="I63" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J63" t="s">
         <v>56</v>
@@ -5134,7 +5212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="A64" t="s">
         <v>171</v>
       </c>
@@ -5160,7 +5238,7 @@
         <v>3</v>
       </c>
       <c r="I64" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J64" t="s">
         <v>56</v>
@@ -5184,7 +5262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="65">
       <c r="A65" t="s">
         <v>172</v>
       </c>
@@ -5225,7 +5303,7 @@
         <v>56</v>
       </c>
       <c r="N65" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="O65" t="s">
         <v>63</v>
@@ -5234,7 +5312,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="A66" t="s">
         <v>108</v>
       </c>
@@ -5260,7 +5338,7 @@
         <v>3</v>
       </c>
       <c r="I66" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J66" t="s">
         <v>56</v>
@@ -5284,7 +5362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="67">
       <c r="A67" t="s">
         <v>110</v>
       </c>
@@ -5310,7 +5388,7 @@
         <v>3</v>
       </c>
       <c r="I67" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J67" t="s">
         <v>56</v>
@@ -5334,7 +5412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="A68" t="s">
         <v>111</v>
       </c>
@@ -5360,7 +5438,7 @@
         <v>3</v>
       </c>
       <c r="I68" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J68" t="s">
         <v>56</v>
@@ -5381,10 +5459,10 @@
         <v>4</v>
       </c>
       <c r="P68" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69">
       <c r="A69" t="s">
         <v>74</v>
       </c>
@@ -5434,7 +5512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="A70" t="s">
         <v>75</v>
       </c>
@@ -5460,7 +5538,7 @@
         <v>3</v>
       </c>
       <c r="I70" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J70" t="s">
         <v>56</v>
@@ -5481,10 +5559,10 @@
         <v>4</v>
       </c>
       <c r="P70" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71">
       <c r="A71" t="s">
         <v>76</v>
       </c>
@@ -5510,7 +5588,7 @@
         <v>3</v>
       </c>
       <c r="I71" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J71" t="s">
         <v>56</v>
@@ -5534,7 +5612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="72">
       <c r="A72" t="s">
         <v>77</v>
       </c>
@@ -5560,7 +5638,7 @@
         <v>3</v>
       </c>
       <c r="I72" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J72" t="s">
         <v>56</v>
@@ -5584,7 +5662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="73">
       <c r="A73" t="s">
         <v>17</v>
       </c>
@@ -5610,7 +5688,7 @@
         <v>3</v>
       </c>
       <c r="I73" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J73" t="s">
         <v>56</v>
@@ -5634,9 +5712,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="74">
       <c r="A74" t="s">
-        <v>18</v>
+        <v>199</v>
       </c>
       <c r="B74" t="s">
         <v>107</v>
@@ -5648,7 +5726,7 @@
         <v>65</v>
       </c>
       <c r="E74" t="s">
-        <v>19</v>
+        <v>198</v>
       </c>
       <c r="F74" t="s">
         <v>60</v>
@@ -5660,7 +5738,7 @@
         <v>3</v>
       </c>
       <c r="I74" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J74" t="s">
         <v>56</v>
@@ -5684,7 +5762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="75">
       <c r="A75" t="s">
         <v>20</v>
       </c>
@@ -5710,7 +5788,7 @@
         <v>3</v>
       </c>
       <c r="I75" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J75" t="s">
         <v>56</v>
@@ -5734,7 +5812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="76">
       <c r="A76" t="s">
         <v>22</v>
       </c>
@@ -5760,7 +5838,7 @@
         <v>3</v>
       </c>
       <c r="I76" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J76" t="s">
         <v>56</v>
@@ -5784,7 +5862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="77">
       <c r="A77" t="s">
         <v>24</v>
       </c>
@@ -5810,7 +5888,7 @@
         <v>3</v>
       </c>
       <c r="I77" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J77" t="s">
         <v>56</v>
@@ -5834,7 +5912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="78">
       <c r="A78" t="s">
         <v>26</v>
       </c>
@@ -5860,7 +5938,7 @@
         <v>3</v>
       </c>
       <c r="I78" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J78" t="s">
         <v>56</v>
@@ -5884,7 +5962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="79">
       <c r="A79" t="s">
         <v>28</v>
       </c>
@@ -5910,7 +5988,7 @@
         <v>3</v>
       </c>
       <c r="I79" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J79" t="s">
         <v>56</v>
@@ -5934,7 +6012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="80">
       <c r="A80" t="s">
         <v>30</v>
       </c>
@@ -5960,7 +6038,7 @@
         <v>3</v>
       </c>
       <c r="I80" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J80" t="s">
         <v>56</v>
@@ -5984,7 +6062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="81">
       <c r="A81" t="s">
         <v>32</v>
       </c>
@@ -6010,7 +6088,7 @@
         <v>3</v>
       </c>
       <c r="I81" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J81" t="s">
         <v>56</v>
@@ -6034,7 +6112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="82">
       <c r="A82" t="s">
         <v>34</v>
       </c>
@@ -6060,7 +6138,7 @@
         <v>3</v>
       </c>
       <c r="I82" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J82" t="s">
         <v>56</v>
@@ -6084,7 +6162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="83">
       <c r="A83" t="s">
         <v>36</v>
       </c>
@@ -6110,7 +6188,7 @@
         <v>3</v>
       </c>
       <c r="I83" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J83" t="s">
         <v>56</v>
@@ -6134,7 +6212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="84">
       <c r="A84" t="s">
         <v>78</v>
       </c>
@@ -6160,7 +6238,7 @@
         <v>3</v>
       </c>
       <c r="I84" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J84" t="s">
         <v>56</v>
@@ -6184,7 +6262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="85">
       <c r="A85" t="s">
         <v>79</v>
       </c>
@@ -6210,7 +6288,7 @@
         <v>3</v>
       </c>
       <c r="I85" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J85" t="s">
         <v>56</v>
@@ -6234,7 +6312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="86">
       <c r="A86" t="s">
         <v>80</v>
       </c>
@@ -6260,7 +6338,7 @@
         <v>3</v>
       </c>
       <c r="I86" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J86" t="s">
         <v>56</v>
@@ -6284,7 +6362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="87">
       <c r="A87" t="s">
         <v>81</v>
       </c>
@@ -6310,7 +6388,7 @@
         <v>3</v>
       </c>
       <c r="I87" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J87" t="s">
         <v>56</v>
@@ -6334,7 +6412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="88">
       <c r="A88" t="s">
         <v>82</v>
       </c>
@@ -6360,7 +6438,7 @@
         <v>3</v>
       </c>
       <c r="I88" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J88" t="s">
         <v>56</v>
@@ -6384,7 +6462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="89">
       <c r="A89" t="s">
         <v>83</v>
       </c>
@@ -6410,7 +6488,7 @@
         <v>3</v>
       </c>
       <c r="I89" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J89" t="s">
         <v>56</v>
@@ -6434,7 +6512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="90">
       <c r="A90" t="s">
         <v>84</v>
       </c>
@@ -6475,7 +6553,7 @@
         <v>56</v>
       </c>
       <c r="N90" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="O90" t="s">
         <v>4</v>
@@ -6484,7 +6562,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="91">
       <c r="A91" t="s">
         <v>87</v>
       </c>
@@ -6525,7 +6603,7 @@
         <v>56</v>
       </c>
       <c r="N91" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="O91" t="s">
         <v>4</v>
@@ -6534,7 +6612,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="92">
       <c r="A92" t="s">
         <v>88</v>
       </c>
@@ -6575,7 +6653,7 @@
         <v>56</v>
       </c>
       <c r="N92" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="O92" t="s">
         <v>4</v>
@@ -6584,7 +6662,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="93">
       <c r="A93" t="s">
         <v>89</v>
       </c>
@@ -6625,7 +6703,7 @@
         <v>56</v>
       </c>
       <c r="N93" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="O93" t="s">
         <v>4</v>
@@ -6634,7 +6712,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="94">
       <c r="A94" t="s">
         <v>90</v>
       </c>
@@ -6675,7 +6753,7 @@
         <v>56</v>
       </c>
       <c r="N94" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="O94" t="s">
         <v>4</v>
@@ -6684,7 +6762,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="95">
       <c r="A95" t="s">
         <v>92</v>
       </c>
@@ -6725,7 +6803,7 @@
         <v>56</v>
       </c>
       <c r="N95" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="O95" t="s">
         <v>4</v>
@@ -6734,7 +6812,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="96">
       <c r="A96" t="s">
         <v>93</v>
       </c>
@@ -6775,7 +6853,7 @@
         <v>56</v>
       </c>
       <c r="N96" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="O96" t="s">
         <v>4</v>
@@ -6784,7 +6862,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="97">
       <c r="A97" t="s">
         <v>94</v>
       </c>
@@ -6825,7 +6903,7 @@
         <v>96</v>
       </c>
       <c r="N97" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="O97" t="s">
         <v>4</v>
@@ -6834,7 +6912,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="98">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -6875,7 +6953,7 @@
         <v>96</v>
       </c>
       <c r="N98" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="O98" t="s">
         <v>4</v>
@@ -6884,7 +6962,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="99">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -6925,7 +7003,7 @@
         <v>96</v>
       </c>
       <c r="N99" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="O99" t="s">
         <v>4</v>
@@ -6933,6 +7011,1824 @@
       <c r="P99" t="s">
         <v>14</v>
       </c>
+    </row>
+    <row r="100">
+      <c r="A100"/>
+      <c r="B100"/>
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100"/>
+      <c r="H100"/>
+      <c r="I100"/>
+      <c r="J100"/>
+      <c r="K100"/>
+      <c r="L100"/>
+      <c r="M100"/>
+      <c r="N100"/>
+      <c r="O100"/>
+      <c r="P100"/>
+    </row>
+    <row r="101">
+      <c r="A101"/>
+      <c r="B101"/>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101"/>
+      <c r="F101"/>
+      <c r="G101"/>
+      <c r="H101"/>
+      <c r="I101"/>
+      <c r="J101"/>
+      <c r="K101"/>
+      <c r="L101"/>
+      <c r="M101"/>
+      <c r="N101"/>
+      <c r="O101"/>
+      <c r="P101"/>
+    </row>
+    <row r="102">
+      <c r="A102"/>
+      <c r="B102"/>
+      <c r="C102"/>
+      <c r="D102"/>
+      <c r="E102"/>
+      <c r="F102"/>
+      <c r="G102"/>
+      <c r="H102"/>
+      <c r="I102"/>
+      <c r="J102"/>
+      <c r="K102"/>
+      <c r="L102"/>
+      <c r="M102"/>
+      <c r="N102"/>
+      <c r="O102"/>
+      <c r="P102"/>
+    </row>
+    <row r="103">
+      <c r="A103"/>
+      <c r="B103"/>
+      <c r="C103"/>
+      <c r="D103"/>
+      <c r="E103"/>
+      <c r="F103"/>
+      <c r="G103"/>
+      <c r="H103"/>
+      <c r="I103"/>
+      <c r="J103"/>
+      <c r="K103"/>
+      <c r="L103"/>
+      <c r="M103"/>
+      <c r="N103"/>
+      <c r="O103"/>
+      <c r="P103"/>
+    </row>
+    <row r="104">
+      <c r="A104"/>
+      <c r="B104"/>
+      <c r="C104"/>
+      <c r="D104"/>
+      <c r="E104"/>
+      <c r="F104"/>
+      <c r="G104"/>
+      <c r="H104"/>
+      <c r="I104"/>
+      <c r="J104"/>
+      <c r="K104"/>
+      <c r="L104"/>
+      <c r="M104"/>
+      <c r="N104"/>
+      <c r="O104"/>
+      <c r="P104"/>
+    </row>
+    <row r="105">
+      <c r="A105"/>
+      <c r="B105"/>
+      <c r="C105"/>
+      <c r="D105"/>
+      <c r="E105"/>
+      <c r="F105"/>
+      <c r="G105"/>
+      <c r="H105"/>
+      <c r="I105"/>
+      <c r="J105"/>
+      <c r="K105"/>
+      <c r="L105"/>
+      <c r="M105"/>
+      <c r="N105"/>
+      <c r="O105"/>
+      <c r="P105"/>
+    </row>
+    <row r="106">
+      <c r="A106"/>
+      <c r="B106"/>
+      <c r="C106"/>
+      <c r="D106"/>
+      <c r="E106"/>
+      <c r="F106"/>
+      <c r="G106"/>
+      <c r="H106"/>
+      <c r="I106"/>
+      <c r="J106"/>
+      <c r="K106"/>
+      <c r="L106"/>
+      <c r="M106"/>
+      <c r="N106"/>
+      <c r="O106"/>
+      <c r="P106"/>
+    </row>
+    <row r="107">
+      <c r="A107"/>
+      <c r="B107"/>
+      <c r="C107"/>
+      <c r="D107"/>
+      <c r="E107"/>
+      <c r="F107"/>
+      <c r="G107"/>
+      <c r="H107"/>
+      <c r="I107"/>
+      <c r="J107"/>
+      <c r="K107"/>
+      <c r="L107"/>
+      <c r="M107"/>
+      <c r="N107"/>
+      <c r="O107"/>
+      <c r="P107"/>
+    </row>
+    <row r="108">
+      <c r="A108"/>
+      <c r="B108"/>
+      <c r="C108"/>
+      <c r="D108"/>
+      <c r="E108"/>
+      <c r="F108"/>
+      <c r="G108"/>
+      <c r="H108"/>
+      <c r="I108"/>
+      <c r="J108"/>
+      <c r="K108"/>
+      <c r="L108"/>
+      <c r="M108"/>
+      <c r="N108"/>
+      <c r="O108"/>
+      <c r="P108"/>
+    </row>
+    <row r="109">
+      <c r="A109"/>
+      <c r="B109"/>
+      <c r="C109"/>
+      <c r="D109"/>
+      <c r="E109"/>
+      <c r="F109"/>
+      <c r="G109"/>
+      <c r="H109"/>
+      <c r="I109"/>
+      <c r="J109"/>
+      <c r="K109"/>
+      <c r="L109"/>
+      <c r="M109"/>
+      <c r="N109"/>
+      <c r="O109"/>
+      <c r="P109"/>
+    </row>
+    <row r="110">
+      <c r="A110"/>
+      <c r="B110"/>
+      <c r="C110"/>
+      <c r="D110"/>
+      <c r="E110"/>
+      <c r="F110"/>
+      <c r="G110"/>
+      <c r="H110"/>
+      <c r="I110"/>
+      <c r="J110"/>
+      <c r="K110"/>
+      <c r="L110"/>
+      <c r="M110"/>
+      <c r="N110"/>
+      <c r="O110"/>
+      <c r="P110"/>
+    </row>
+    <row r="111">
+      <c r="A111"/>
+      <c r="B111"/>
+      <c r="C111"/>
+      <c r="D111"/>
+      <c r="E111"/>
+      <c r="F111"/>
+      <c r="G111"/>
+      <c r="H111"/>
+      <c r="I111"/>
+      <c r="J111"/>
+      <c r="K111"/>
+      <c r="L111"/>
+      <c r="M111"/>
+      <c r="N111"/>
+      <c r="O111"/>
+      <c r="P111"/>
+    </row>
+    <row r="112">
+      <c r="A112"/>
+      <c r="B112"/>
+      <c r="C112"/>
+      <c r="D112"/>
+      <c r="E112"/>
+      <c r="F112"/>
+      <c r="G112"/>
+      <c r="H112"/>
+      <c r="I112"/>
+      <c r="J112"/>
+      <c r="K112"/>
+      <c r="L112"/>
+      <c r="M112"/>
+      <c r="N112"/>
+      <c r="O112"/>
+      <c r="P112"/>
+    </row>
+    <row r="113">
+      <c r="A113"/>
+      <c r="B113"/>
+      <c r="C113"/>
+      <c r="D113"/>
+      <c r="E113"/>
+      <c r="F113"/>
+      <c r="G113"/>
+      <c r="H113"/>
+      <c r="I113"/>
+      <c r="J113"/>
+      <c r="K113"/>
+      <c r="L113"/>
+      <c r="M113"/>
+      <c r="N113"/>
+      <c r="O113"/>
+      <c r="P113"/>
+    </row>
+    <row r="114">
+      <c r="A114"/>
+      <c r="B114"/>
+      <c r="C114"/>
+      <c r="D114"/>
+      <c r="E114"/>
+      <c r="F114"/>
+      <c r="G114"/>
+      <c r="H114"/>
+      <c r="I114"/>
+      <c r="J114"/>
+      <c r="K114"/>
+      <c r="L114"/>
+      <c r="M114"/>
+      <c r="N114"/>
+      <c r="O114"/>
+      <c r="P114"/>
+    </row>
+    <row r="115">
+      <c r="A115"/>
+      <c r="B115"/>
+      <c r="C115"/>
+      <c r="D115"/>
+      <c r="E115"/>
+      <c r="F115"/>
+      <c r="G115"/>
+      <c r="H115"/>
+      <c r="I115"/>
+      <c r="J115"/>
+      <c r="K115"/>
+      <c r="L115"/>
+      <c r="M115"/>
+      <c r="N115"/>
+      <c r="O115"/>
+      <c r="P115"/>
+    </row>
+    <row r="116">
+      <c r="A116"/>
+      <c r="B116"/>
+      <c r="C116"/>
+      <c r="D116"/>
+      <c r="E116"/>
+      <c r="F116"/>
+      <c r="G116"/>
+      <c r="H116"/>
+      <c r="I116"/>
+      <c r="J116"/>
+      <c r="K116"/>
+      <c r="L116"/>
+      <c r="M116"/>
+      <c r="N116"/>
+      <c r="O116"/>
+      <c r="P116"/>
+    </row>
+    <row r="117">
+      <c r="A117"/>
+      <c r="B117"/>
+      <c r="C117"/>
+      <c r="D117"/>
+      <c r="E117"/>
+      <c r="F117"/>
+      <c r="G117"/>
+      <c r="H117"/>
+      <c r="I117"/>
+      <c r="J117"/>
+      <c r="K117"/>
+      <c r="L117"/>
+      <c r="M117"/>
+      <c r="N117"/>
+      <c r="O117"/>
+      <c r="P117"/>
+    </row>
+    <row r="118">
+      <c r="A118"/>
+      <c r="B118"/>
+      <c r="C118"/>
+      <c r="D118"/>
+      <c r="E118"/>
+      <c r="F118"/>
+      <c r="G118"/>
+      <c r="H118"/>
+      <c r="I118"/>
+      <c r="J118"/>
+      <c r="K118"/>
+      <c r="L118"/>
+      <c r="M118"/>
+      <c r="N118"/>
+      <c r="O118"/>
+      <c r="P118"/>
+    </row>
+    <row r="119">
+      <c r="A119"/>
+      <c r="B119"/>
+      <c r="C119"/>
+      <c r="D119"/>
+      <c r="E119"/>
+      <c r="F119"/>
+      <c r="G119"/>
+      <c r="H119"/>
+      <c r="I119"/>
+      <c r="J119"/>
+      <c r="K119"/>
+      <c r="L119"/>
+      <c r="M119"/>
+      <c r="N119"/>
+      <c r="O119"/>
+      <c r="P119"/>
+    </row>
+    <row r="120">
+      <c r="A120"/>
+      <c r="B120"/>
+      <c r="C120"/>
+      <c r="D120"/>
+      <c r="E120"/>
+      <c r="F120"/>
+      <c r="G120"/>
+      <c r="H120"/>
+      <c r="I120"/>
+      <c r="J120"/>
+      <c r="K120"/>
+      <c r="L120"/>
+      <c r="M120"/>
+      <c r="N120"/>
+      <c r="O120"/>
+      <c r="P120"/>
+    </row>
+    <row r="121">
+      <c r="A121"/>
+      <c r="B121"/>
+      <c r="C121"/>
+      <c r="D121"/>
+      <c r="E121"/>
+      <c r="F121"/>
+      <c r="G121"/>
+      <c r="H121"/>
+      <c r="I121"/>
+      <c r="J121"/>
+      <c r="K121"/>
+      <c r="L121"/>
+      <c r="M121"/>
+      <c r="N121"/>
+      <c r="O121"/>
+      <c r="P121"/>
+    </row>
+    <row r="122">
+      <c r="A122"/>
+      <c r="B122"/>
+      <c r="C122"/>
+      <c r="D122"/>
+      <c r="E122"/>
+      <c r="F122"/>
+      <c r="G122"/>
+      <c r="H122"/>
+      <c r="I122"/>
+      <c r="J122"/>
+      <c r="K122"/>
+      <c r="L122"/>
+      <c r="M122"/>
+      <c r="N122"/>
+      <c r="O122"/>
+      <c r="P122"/>
+    </row>
+    <row r="123">
+      <c r="A123"/>
+      <c r="B123"/>
+      <c r="C123"/>
+      <c r="D123"/>
+      <c r="E123"/>
+      <c r="F123"/>
+      <c r="G123"/>
+      <c r="H123"/>
+      <c r="I123"/>
+      <c r="J123"/>
+      <c r="K123"/>
+      <c r="L123"/>
+      <c r="M123"/>
+      <c r="N123"/>
+      <c r="O123"/>
+      <c r="P123"/>
+    </row>
+    <row r="124">
+      <c r="A124"/>
+      <c r="B124"/>
+      <c r="C124"/>
+      <c r="D124"/>
+      <c r="E124"/>
+      <c r="F124"/>
+      <c r="G124"/>
+      <c r="H124"/>
+      <c r="I124"/>
+      <c r="J124"/>
+      <c r="K124"/>
+      <c r="L124"/>
+      <c r="M124"/>
+      <c r="N124"/>
+      <c r="O124"/>
+      <c r="P124"/>
+    </row>
+    <row r="125">
+      <c r="A125"/>
+      <c r="B125"/>
+      <c r="C125"/>
+      <c r="D125"/>
+      <c r="E125"/>
+      <c r="F125"/>
+      <c r="G125"/>
+      <c r="H125"/>
+      <c r="I125"/>
+      <c r="J125"/>
+      <c r="K125"/>
+      <c r="L125"/>
+      <c r="M125"/>
+      <c r="N125"/>
+      <c r="O125"/>
+      <c r="P125"/>
+    </row>
+    <row r="126">
+      <c r="A126"/>
+      <c r="B126"/>
+      <c r="C126"/>
+      <c r="D126"/>
+      <c r="E126"/>
+      <c r="F126"/>
+      <c r="G126"/>
+      <c r="H126"/>
+      <c r="I126"/>
+      <c r="J126"/>
+      <c r="K126"/>
+      <c r="L126"/>
+      <c r="M126"/>
+      <c r="N126"/>
+      <c r="O126"/>
+      <c r="P126"/>
+    </row>
+    <row r="127">
+      <c r="A127"/>
+      <c r="B127"/>
+      <c r="C127"/>
+      <c r="D127"/>
+      <c r="E127"/>
+      <c r="F127"/>
+      <c r="G127"/>
+      <c r="H127"/>
+      <c r="I127"/>
+      <c r="J127"/>
+      <c r="K127"/>
+      <c r="L127"/>
+      <c r="M127"/>
+      <c r="N127"/>
+      <c r="O127"/>
+      <c r="P127"/>
+    </row>
+    <row r="128">
+      <c r="A128"/>
+      <c r="B128"/>
+      <c r="C128"/>
+      <c r="D128"/>
+      <c r="E128"/>
+      <c r="F128"/>
+      <c r="G128"/>
+      <c r="H128"/>
+      <c r="I128"/>
+      <c r="J128"/>
+      <c r="K128"/>
+      <c r="L128"/>
+      <c r="M128"/>
+      <c r="N128"/>
+      <c r="O128"/>
+      <c r="P128"/>
+    </row>
+    <row r="129">
+      <c r="A129"/>
+      <c r="B129"/>
+      <c r="C129"/>
+      <c r="D129"/>
+      <c r="E129"/>
+      <c r="F129"/>
+      <c r="G129"/>
+      <c r="H129"/>
+      <c r="I129"/>
+      <c r="J129"/>
+      <c r="K129"/>
+      <c r="L129"/>
+      <c r="M129"/>
+      <c r="N129"/>
+      <c r="O129"/>
+      <c r="P129"/>
+    </row>
+    <row r="130">
+      <c r="A130"/>
+      <c r="B130"/>
+      <c r="C130"/>
+      <c r="D130"/>
+      <c r="E130"/>
+      <c r="F130"/>
+      <c r="G130"/>
+      <c r="H130"/>
+      <c r="I130"/>
+      <c r="J130"/>
+      <c r="K130"/>
+      <c r="L130"/>
+      <c r="M130"/>
+      <c r="N130"/>
+      <c r="O130"/>
+      <c r="P130"/>
+    </row>
+    <row r="131">
+      <c r="A131"/>
+      <c r="B131"/>
+      <c r="C131"/>
+      <c r="D131"/>
+      <c r="E131"/>
+      <c r="F131"/>
+      <c r="G131"/>
+      <c r="H131"/>
+      <c r="I131"/>
+      <c r="J131"/>
+      <c r="K131"/>
+      <c r="L131"/>
+      <c r="M131"/>
+      <c r="N131"/>
+      <c r="O131"/>
+      <c r="P131"/>
+    </row>
+    <row r="132">
+      <c r="A132"/>
+      <c r="B132"/>
+      <c r="C132"/>
+      <c r="D132"/>
+      <c r="E132"/>
+      <c r="F132"/>
+      <c r="G132"/>
+      <c r="H132"/>
+      <c r="I132"/>
+      <c r="J132"/>
+      <c r="K132"/>
+      <c r="L132"/>
+      <c r="M132"/>
+      <c r="N132"/>
+      <c r="O132"/>
+      <c r="P132"/>
+    </row>
+    <row r="133">
+      <c r="A133"/>
+      <c r="B133"/>
+      <c r="C133"/>
+      <c r="D133"/>
+      <c r="E133"/>
+      <c r="F133"/>
+      <c r="G133"/>
+      <c r="H133"/>
+      <c r="I133"/>
+      <c r="J133"/>
+      <c r="K133"/>
+      <c r="L133"/>
+      <c r="M133"/>
+      <c r="N133"/>
+      <c r="O133"/>
+      <c r="P133"/>
+    </row>
+    <row r="134">
+      <c r="A134"/>
+      <c r="B134"/>
+      <c r="C134"/>
+      <c r="D134"/>
+      <c r="E134"/>
+      <c r="F134"/>
+      <c r="G134"/>
+      <c r="H134"/>
+      <c r="I134"/>
+      <c r="J134"/>
+      <c r="K134"/>
+      <c r="L134"/>
+      <c r="M134"/>
+      <c r="N134"/>
+      <c r="O134"/>
+      <c r="P134"/>
+    </row>
+    <row r="135">
+      <c r="A135"/>
+      <c r="B135"/>
+      <c r="C135"/>
+      <c r="D135"/>
+      <c r="E135"/>
+      <c r="F135"/>
+      <c r="G135"/>
+      <c r="H135"/>
+      <c r="I135"/>
+      <c r="J135"/>
+      <c r="K135"/>
+      <c r="L135"/>
+      <c r="M135"/>
+      <c r="N135"/>
+      <c r="O135"/>
+      <c r="P135"/>
+    </row>
+    <row r="136">
+      <c r="A136"/>
+      <c r="B136"/>
+      <c r="C136"/>
+      <c r="D136"/>
+      <c r="E136"/>
+      <c r="F136"/>
+      <c r="G136"/>
+      <c r="H136"/>
+      <c r="I136"/>
+      <c r="J136"/>
+      <c r="K136"/>
+      <c r="L136"/>
+      <c r="M136"/>
+      <c r="N136"/>
+      <c r="O136"/>
+      <c r="P136"/>
+    </row>
+    <row r="137">
+      <c r="A137"/>
+      <c r="B137"/>
+      <c r="C137"/>
+      <c r="D137"/>
+      <c r="E137"/>
+      <c r="F137"/>
+      <c r="G137"/>
+      <c r="H137"/>
+      <c r="I137"/>
+      <c r="J137"/>
+      <c r="K137"/>
+      <c r="L137"/>
+      <c r="M137"/>
+      <c r="N137"/>
+      <c r="O137"/>
+      <c r="P137"/>
+    </row>
+    <row r="138">
+      <c r="A138"/>
+      <c r="B138"/>
+      <c r="C138"/>
+      <c r="D138"/>
+      <c r="E138"/>
+      <c r="F138"/>
+      <c r="G138"/>
+      <c r="H138"/>
+      <c r="I138"/>
+      <c r="J138"/>
+      <c r="K138"/>
+      <c r="L138"/>
+      <c r="M138"/>
+      <c r="N138"/>
+      <c r="O138"/>
+      <c r="P138"/>
+    </row>
+    <row r="139">
+      <c r="A139"/>
+      <c r="B139"/>
+      <c r="C139"/>
+      <c r="D139"/>
+      <c r="E139"/>
+      <c r="F139"/>
+      <c r="G139"/>
+      <c r="H139"/>
+      <c r="I139"/>
+      <c r="J139"/>
+      <c r="K139"/>
+      <c r="L139"/>
+      <c r="M139"/>
+      <c r="N139"/>
+      <c r="O139"/>
+      <c r="P139"/>
+    </row>
+    <row r="140">
+      <c r="A140"/>
+      <c r="B140"/>
+      <c r="C140"/>
+      <c r="D140"/>
+      <c r="E140"/>
+      <c r="F140"/>
+      <c r="G140"/>
+      <c r="H140"/>
+      <c r="I140"/>
+      <c r="J140"/>
+      <c r="K140"/>
+      <c r="L140"/>
+      <c r="M140"/>
+      <c r="N140"/>
+      <c r="O140"/>
+      <c r="P140"/>
+    </row>
+    <row r="141">
+      <c r="A141"/>
+      <c r="B141"/>
+      <c r="C141"/>
+      <c r="D141"/>
+      <c r="E141"/>
+      <c r="F141"/>
+      <c r="G141"/>
+      <c r="H141"/>
+      <c r="I141"/>
+      <c r="J141"/>
+      <c r="K141"/>
+      <c r="L141"/>
+      <c r="M141"/>
+      <c r="N141"/>
+      <c r="O141"/>
+      <c r="P141"/>
+    </row>
+    <row r="142">
+      <c r="A142"/>
+      <c r="B142"/>
+      <c r="C142"/>
+      <c r="D142"/>
+      <c r="E142"/>
+      <c r="F142"/>
+      <c r="G142"/>
+      <c r="H142"/>
+      <c r="I142"/>
+      <c r="J142"/>
+      <c r="K142"/>
+      <c r="L142"/>
+      <c r="M142"/>
+      <c r="N142"/>
+      <c r="O142"/>
+      <c r="P142"/>
+    </row>
+    <row r="143">
+      <c r="A143"/>
+      <c r="B143"/>
+      <c r="C143"/>
+      <c r="D143"/>
+      <c r="E143"/>
+      <c r="F143"/>
+      <c r="G143"/>
+      <c r="H143"/>
+      <c r="I143"/>
+      <c r="J143"/>
+      <c r="K143"/>
+      <c r="L143"/>
+      <c r="M143"/>
+      <c r="N143"/>
+      <c r="O143"/>
+      <c r="P143"/>
+    </row>
+    <row r="144">
+      <c r="A144"/>
+      <c r="B144"/>
+      <c r="C144"/>
+      <c r="D144"/>
+      <c r="E144"/>
+      <c r="F144"/>
+      <c r="G144"/>
+      <c r="H144"/>
+      <c r="I144"/>
+      <c r="J144"/>
+      <c r="K144"/>
+      <c r="L144"/>
+      <c r="M144"/>
+      <c r="N144"/>
+      <c r="O144"/>
+      <c r="P144"/>
+    </row>
+    <row r="145">
+      <c r="A145"/>
+      <c r="B145"/>
+      <c r="C145"/>
+      <c r="D145"/>
+      <c r="E145"/>
+      <c r="F145"/>
+      <c r="G145"/>
+      <c r="H145"/>
+      <c r="I145"/>
+      <c r="J145"/>
+      <c r="K145"/>
+      <c r="L145"/>
+      <c r="M145"/>
+      <c r="N145"/>
+      <c r="O145"/>
+      <c r="P145"/>
+    </row>
+    <row r="146">
+      <c r="A146"/>
+      <c r="B146"/>
+      <c r="C146"/>
+      <c r="D146"/>
+      <c r="E146"/>
+      <c r="F146"/>
+      <c r="G146"/>
+      <c r="H146"/>
+      <c r="I146"/>
+      <c r="J146"/>
+      <c r="K146"/>
+      <c r="L146"/>
+      <c r="M146"/>
+      <c r="N146"/>
+      <c r="O146"/>
+      <c r="P146"/>
+    </row>
+    <row r="147">
+      <c r="A147"/>
+      <c r="B147"/>
+      <c r="C147"/>
+      <c r="D147"/>
+      <c r="E147"/>
+      <c r="F147"/>
+      <c r="G147"/>
+      <c r="H147"/>
+      <c r="I147"/>
+      <c r="J147"/>
+      <c r="K147"/>
+      <c r="L147"/>
+      <c r="M147"/>
+      <c r="N147"/>
+      <c r="O147"/>
+      <c r="P147"/>
+    </row>
+    <row r="148">
+      <c r="A148"/>
+      <c r="B148"/>
+      <c r="C148"/>
+      <c r="D148"/>
+      <c r="E148"/>
+      <c r="F148"/>
+      <c r="G148"/>
+      <c r="H148"/>
+      <c r="I148"/>
+      <c r="J148"/>
+      <c r="K148"/>
+      <c r="L148"/>
+      <c r="M148"/>
+      <c r="N148"/>
+      <c r="O148"/>
+      <c r="P148"/>
+    </row>
+    <row r="149">
+      <c r="A149"/>
+      <c r="B149"/>
+      <c r="C149"/>
+      <c r="D149"/>
+      <c r="E149"/>
+      <c r="F149"/>
+      <c r="G149"/>
+      <c r="H149"/>
+      <c r="I149"/>
+      <c r="J149"/>
+      <c r="K149"/>
+      <c r="L149"/>
+      <c r="M149"/>
+      <c r="N149"/>
+      <c r="O149"/>
+      <c r="P149"/>
+    </row>
+    <row r="150">
+      <c r="A150"/>
+      <c r="B150"/>
+      <c r="C150"/>
+      <c r="D150"/>
+      <c r="E150"/>
+      <c r="F150"/>
+      <c r="G150"/>
+      <c r="H150"/>
+      <c r="I150"/>
+      <c r="J150"/>
+      <c r="K150"/>
+      <c r="L150"/>
+      <c r="M150"/>
+      <c r="N150"/>
+      <c r="O150"/>
+      <c r="P150"/>
+    </row>
+    <row r="151">
+      <c r="A151"/>
+      <c r="B151"/>
+      <c r="C151"/>
+      <c r="D151"/>
+      <c r="E151"/>
+      <c r="F151"/>
+      <c r="G151"/>
+      <c r="H151"/>
+      <c r="I151"/>
+      <c r="J151"/>
+      <c r="K151"/>
+      <c r="L151"/>
+      <c r="M151"/>
+      <c r="N151"/>
+      <c r="O151"/>
+      <c r="P151"/>
+    </row>
+    <row r="152">
+      <c r="A152"/>
+      <c r="B152"/>
+      <c r="C152"/>
+      <c r="D152"/>
+      <c r="E152"/>
+      <c r="F152"/>
+      <c r="G152"/>
+      <c r="H152"/>
+      <c r="I152"/>
+      <c r="J152"/>
+      <c r="K152"/>
+      <c r="L152"/>
+      <c r="M152"/>
+      <c r="N152"/>
+      <c r="O152"/>
+      <c r="P152"/>
+    </row>
+    <row r="153">
+      <c r="A153"/>
+      <c r="B153"/>
+      <c r="C153"/>
+      <c r="D153"/>
+      <c r="E153"/>
+      <c r="F153"/>
+      <c r="G153"/>
+      <c r="H153"/>
+      <c r="I153"/>
+      <c r="J153"/>
+      <c r="K153"/>
+      <c r="L153"/>
+      <c r="M153"/>
+      <c r="N153"/>
+      <c r="O153"/>
+      <c r="P153"/>
+    </row>
+    <row r="154">
+      <c r="A154"/>
+      <c r="B154"/>
+      <c r="C154"/>
+      <c r="D154"/>
+      <c r="E154"/>
+      <c r="F154"/>
+      <c r="G154"/>
+      <c r="H154"/>
+      <c r="I154"/>
+      <c r="J154"/>
+      <c r="K154"/>
+      <c r="L154"/>
+      <c r="M154"/>
+      <c r="N154"/>
+      <c r="O154"/>
+      <c r="P154"/>
+    </row>
+    <row r="155">
+      <c r="A155"/>
+      <c r="B155"/>
+      <c r="C155"/>
+      <c r="D155"/>
+      <c r="E155"/>
+      <c r="F155"/>
+      <c r="G155"/>
+      <c r="H155"/>
+      <c r="I155"/>
+      <c r="J155"/>
+      <c r="K155"/>
+      <c r="L155"/>
+      <c r="M155"/>
+      <c r="N155"/>
+      <c r="O155"/>
+      <c r="P155"/>
+    </row>
+    <row r="156">
+      <c r="A156"/>
+      <c r="B156"/>
+      <c r="C156"/>
+      <c r="D156"/>
+      <c r="E156"/>
+      <c r="F156"/>
+      <c r="G156"/>
+      <c r="H156"/>
+      <c r="I156"/>
+      <c r="J156"/>
+      <c r="K156"/>
+      <c r="L156"/>
+      <c r="M156"/>
+      <c r="N156"/>
+      <c r="O156"/>
+      <c r="P156"/>
+    </row>
+    <row r="157">
+      <c r="A157"/>
+      <c r="B157"/>
+      <c r="C157"/>
+      <c r="D157"/>
+      <c r="E157"/>
+      <c r="F157"/>
+      <c r="G157"/>
+      <c r="H157"/>
+      <c r="I157"/>
+      <c r="J157"/>
+      <c r="K157"/>
+      <c r="L157"/>
+      <c r="M157"/>
+      <c r="N157"/>
+      <c r="O157"/>
+      <c r="P157"/>
+    </row>
+    <row r="158">
+      <c r="A158"/>
+      <c r="B158"/>
+      <c r="C158"/>
+      <c r="D158"/>
+      <c r="E158"/>
+      <c r="F158"/>
+      <c r="G158"/>
+      <c r="H158"/>
+      <c r="I158"/>
+      <c r="J158"/>
+      <c r="K158"/>
+      <c r="L158"/>
+      <c r="M158"/>
+      <c r="N158"/>
+      <c r="O158"/>
+      <c r="P158"/>
+    </row>
+    <row r="159">
+      <c r="A159"/>
+      <c r="B159"/>
+      <c r="C159"/>
+      <c r="D159"/>
+      <c r="E159"/>
+      <c r="F159"/>
+      <c r="G159"/>
+      <c r="H159"/>
+      <c r="I159"/>
+      <c r="J159"/>
+      <c r="K159"/>
+      <c r="L159"/>
+      <c r="M159"/>
+      <c r="N159"/>
+      <c r="O159"/>
+      <c r="P159"/>
+    </row>
+    <row r="160">
+      <c r="A160"/>
+      <c r="B160"/>
+      <c r="C160"/>
+      <c r="D160"/>
+      <c r="E160"/>
+      <c r="F160"/>
+      <c r="G160"/>
+      <c r="H160"/>
+      <c r="I160"/>
+      <c r="J160"/>
+      <c r="K160"/>
+      <c r="L160"/>
+      <c r="M160"/>
+      <c r="N160"/>
+      <c r="O160"/>
+      <c r="P160"/>
+    </row>
+    <row r="161">
+      <c r="A161"/>
+      <c r="B161"/>
+      <c r="C161"/>
+      <c r="D161"/>
+      <c r="E161"/>
+      <c r="F161"/>
+      <c r="G161"/>
+      <c r="H161"/>
+      <c r="I161"/>
+      <c r="J161"/>
+      <c r="K161"/>
+      <c r="L161"/>
+      <c r="M161"/>
+      <c r="N161"/>
+      <c r="O161"/>
+      <c r="P161"/>
+    </row>
+    <row r="162">
+      <c r="A162"/>
+      <c r="B162"/>
+      <c r="C162"/>
+      <c r="D162"/>
+      <c r="E162"/>
+      <c r="F162"/>
+      <c r="G162"/>
+      <c r="H162"/>
+      <c r="I162"/>
+      <c r="J162"/>
+      <c r="K162"/>
+      <c r="L162"/>
+      <c r="M162"/>
+      <c r="N162"/>
+      <c r="O162"/>
+      <c r="P162"/>
+    </row>
+    <row r="163">
+      <c r="A163"/>
+      <c r="B163"/>
+      <c r="C163"/>
+      <c r="D163"/>
+      <c r="E163"/>
+      <c r="F163"/>
+      <c r="G163"/>
+      <c r="H163"/>
+      <c r="I163"/>
+      <c r="J163"/>
+      <c r="K163"/>
+      <c r="L163"/>
+      <c r="M163"/>
+      <c r="N163"/>
+      <c r="O163"/>
+      <c r="P163"/>
+    </row>
+    <row r="164">
+      <c r="A164"/>
+      <c r="B164"/>
+      <c r="C164"/>
+      <c r="D164"/>
+      <c r="E164"/>
+      <c r="F164"/>
+      <c r="G164"/>
+      <c r="H164"/>
+      <c r="I164"/>
+      <c r="J164"/>
+      <c r="K164"/>
+      <c r="L164"/>
+      <c r="M164"/>
+      <c r="N164"/>
+      <c r="O164"/>
+      <c r="P164"/>
+    </row>
+    <row r="165">
+      <c r="A165"/>
+      <c r="B165"/>
+      <c r="C165"/>
+      <c r="D165"/>
+      <c r="E165"/>
+      <c r="F165"/>
+      <c r="G165"/>
+      <c r="H165"/>
+      <c r="I165"/>
+      <c r="J165"/>
+      <c r="K165"/>
+      <c r="L165"/>
+      <c r="M165"/>
+      <c r="N165"/>
+      <c r="O165"/>
+      <c r="P165"/>
+    </row>
+    <row r="166">
+      <c r="A166"/>
+      <c r="B166"/>
+      <c r="C166"/>
+      <c r="D166"/>
+      <c r="E166"/>
+      <c r="F166"/>
+      <c r="G166"/>
+      <c r="H166"/>
+      <c r="I166"/>
+      <c r="J166"/>
+      <c r="K166"/>
+      <c r="L166"/>
+      <c r="M166"/>
+      <c r="N166"/>
+      <c r="O166"/>
+      <c r="P166"/>
+    </row>
+    <row r="167">
+      <c r="A167"/>
+      <c r="B167"/>
+      <c r="C167"/>
+      <c r="D167"/>
+      <c r="E167"/>
+      <c r="F167"/>
+      <c r="G167"/>
+      <c r="H167"/>
+      <c r="I167"/>
+      <c r="J167"/>
+      <c r="K167"/>
+      <c r="L167"/>
+      <c r="M167"/>
+      <c r="N167"/>
+      <c r="O167"/>
+      <c r="P167"/>
+    </row>
+    <row r="168">
+      <c r="A168"/>
+      <c r="B168"/>
+      <c r="C168"/>
+      <c r="D168"/>
+      <c r="E168"/>
+      <c r="F168"/>
+      <c r="G168"/>
+      <c r="H168"/>
+      <c r="I168"/>
+      <c r="J168"/>
+      <c r="K168"/>
+      <c r="L168"/>
+      <c r="M168"/>
+      <c r="N168"/>
+      <c r="O168"/>
+      <c r="P168"/>
+    </row>
+    <row r="169">
+      <c r="A169"/>
+      <c r="B169"/>
+      <c r="C169"/>
+      <c r="D169"/>
+      <c r="E169"/>
+      <c r="F169"/>
+      <c r="G169"/>
+      <c r="H169"/>
+      <c r="I169"/>
+      <c r="J169"/>
+      <c r="K169"/>
+      <c r="L169"/>
+      <c r="M169"/>
+      <c r="N169"/>
+      <c r="O169"/>
+      <c r="P169"/>
+    </row>
+    <row r="170">
+      <c r="A170"/>
+      <c r="B170"/>
+      <c r="C170"/>
+      <c r="D170"/>
+      <c r="E170"/>
+      <c r="F170"/>
+      <c r="G170"/>
+      <c r="H170"/>
+      <c r="I170"/>
+      <c r="J170"/>
+      <c r="K170"/>
+      <c r="L170"/>
+      <c r="M170"/>
+      <c r="N170"/>
+      <c r="O170"/>
+      <c r="P170"/>
+    </row>
+    <row r="171">
+      <c r="A171"/>
+      <c r="B171"/>
+      <c r="C171"/>
+      <c r="D171"/>
+      <c r="E171"/>
+      <c r="F171"/>
+      <c r="G171"/>
+      <c r="H171"/>
+      <c r="I171"/>
+      <c r="J171"/>
+      <c r="K171"/>
+      <c r="L171"/>
+      <c r="M171"/>
+      <c r="N171"/>
+      <c r="O171"/>
+      <c r="P171"/>
+    </row>
+    <row r="172">
+      <c r="A172"/>
+      <c r="B172"/>
+      <c r="C172"/>
+      <c r="D172"/>
+      <c r="E172"/>
+      <c r="F172"/>
+      <c r="G172"/>
+      <c r="H172"/>
+      <c r="I172"/>
+      <c r="J172"/>
+      <c r="K172"/>
+      <c r="L172"/>
+      <c r="M172"/>
+      <c r="N172"/>
+      <c r="O172"/>
+      <c r="P172"/>
+    </row>
+    <row r="173">
+      <c r="A173"/>
+      <c r="B173"/>
+      <c r="C173"/>
+      <c r="D173"/>
+      <c r="E173"/>
+      <c r="F173"/>
+      <c r="G173"/>
+      <c r="H173"/>
+      <c r="I173"/>
+      <c r="J173"/>
+      <c r="K173"/>
+      <c r="L173"/>
+      <c r="M173"/>
+      <c r="N173"/>
+      <c r="O173"/>
+      <c r="P173"/>
+    </row>
+    <row r="174">
+      <c r="A174"/>
+      <c r="B174"/>
+      <c r="C174"/>
+      <c r="D174"/>
+      <c r="E174"/>
+      <c r="F174"/>
+      <c r="G174"/>
+      <c r="H174"/>
+      <c r="I174"/>
+      <c r="J174"/>
+      <c r="K174"/>
+      <c r="L174"/>
+      <c r="M174"/>
+      <c r="N174"/>
+      <c r="O174"/>
+      <c r="P174"/>
+    </row>
+    <row r="175">
+      <c r="A175"/>
+      <c r="B175"/>
+      <c r="C175"/>
+      <c r="D175"/>
+      <c r="E175"/>
+      <c r="F175"/>
+      <c r="G175"/>
+      <c r="H175"/>
+      <c r="I175"/>
+      <c r="J175"/>
+      <c r="K175"/>
+      <c r="L175"/>
+      <c r="M175"/>
+      <c r="N175"/>
+      <c r="O175"/>
+      <c r="P175"/>
+    </row>
+    <row r="176">
+      <c r="A176"/>
+      <c r="B176"/>
+      <c r="C176"/>
+      <c r="D176"/>
+      <c r="E176"/>
+      <c r="F176"/>
+      <c r="G176"/>
+      <c r="H176"/>
+      <c r="I176"/>
+      <c r="J176"/>
+      <c r="K176"/>
+      <c r="L176"/>
+      <c r="M176"/>
+      <c r="N176"/>
+      <c r="O176"/>
+      <c r="P176"/>
+    </row>
+    <row r="177">
+      <c r="A177"/>
+      <c r="B177"/>
+      <c r="C177"/>
+      <c r="D177"/>
+      <c r="E177"/>
+      <c r="F177"/>
+      <c r="G177"/>
+      <c r="H177"/>
+      <c r="I177"/>
+      <c r="J177"/>
+      <c r="K177"/>
+      <c r="L177"/>
+      <c r="M177"/>
+      <c r="N177"/>
+      <c r="O177"/>
+      <c r="P177"/>
+    </row>
+    <row r="178">
+      <c r="A178"/>
+      <c r="B178"/>
+      <c r="C178"/>
+      <c r="D178"/>
+      <c r="E178"/>
+      <c r="F178"/>
+      <c r="G178"/>
+      <c r="H178"/>
+      <c r="I178"/>
+      <c r="J178"/>
+      <c r="K178"/>
+      <c r="L178"/>
+      <c r="M178"/>
+      <c r="N178"/>
+      <c r="O178"/>
+      <c r="P178"/>
+    </row>
+    <row r="179">
+      <c r="A179"/>
+      <c r="B179"/>
+      <c r="C179"/>
+      <c r="D179"/>
+      <c r="E179"/>
+      <c r="F179"/>
+      <c r="G179"/>
+      <c r="H179"/>
+      <c r="I179"/>
+      <c r="J179"/>
+      <c r="K179"/>
+      <c r="L179"/>
+      <c r="M179"/>
+      <c r="N179"/>
+      <c r="O179"/>
+      <c r="P179"/>
+    </row>
+    <row r="180">
+      <c r="A180"/>
+      <c r="B180"/>
+      <c r="C180"/>
+      <c r="D180"/>
+      <c r="E180"/>
+      <c r="F180"/>
+      <c r="G180"/>
+      <c r="H180"/>
+      <c r="I180"/>
+      <c r="J180"/>
+      <c r="K180"/>
+      <c r="L180"/>
+      <c r="M180"/>
+      <c r="N180"/>
+      <c r="O180"/>
+      <c r="P180"/>
+    </row>
+    <row r="181">
+      <c r="A181"/>
+      <c r="B181"/>
+      <c r="C181"/>
+      <c r="D181"/>
+      <c r="E181"/>
+      <c r="F181"/>
+      <c r="G181"/>
+      <c r="H181"/>
+      <c r="I181"/>
+      <c r="J181"/>
+      <c r="K181"/>
+      <c r="L181"/>
+      <c r="M181"/>
+      <c r="N181"/>
+      <c r="O181"/>
+      <c r="P181"/>
+    </row>
+    <row r="182">
+      <c r="A182"/>
+      <c r="B182"/>
+      <c r="C182"/>
+      <c r="D182"/>
+      <c r="E182"/>
+      <c r="F182"/>
+      <c r="G182"/>
+      <c r="H182"/>
+      <c r="I182"/>
+      <c r="J182"/>
+      <c r="K182"/>
+      <c r="L182"/>
+      <c r="M182"/>
+      <c r="N182"/>
+      <c r="O182"/>
+      <c r="P182"/>
+    </row>
+    <row r="183">
+      <c r="A183"/>
+      <c r="B183"/>
+      <c r="C183"/>
+      <c r="D183"/>
+      <c r="E183"/>
+      <c r="F183"/>
+      <c r="G183"/>
+      <c r="H183"/>
+      <c r="I183"/>
+      <c r="J183"/>
+      <c r="K183"/>
+      <c r="L183"/>
+      <c r="M183"/>
+      <c r="N183"/>
+      <c r="O183"/>
+      <c r="P183"/>
+    </row>
+    <row r="184">
+      <c r="A184"/>
+      <c r="B184"/>
+      <c r="C184"/>
+      <c r="D184"/>
+      <c r="E184"/>
+      <c r="F184"/>
+      <c r="G184"/>
+      <c r="H184"/>
+      <c r="I184"/>
+      <c r="J184"/>
+      <c r="K184"/>
+      <c r="L184"/>
+      <c r="M184"/>
+      <c r="N184"/>
+      <c r="O184"/>
+      <c r="P184"/>
+    </row>
+    <row r="185">
+      <c r="A185"/>
+      <c r="B185"/>
+      <c r="C185"/>
+      <c r="D185"/>
+      <c r="E185"/>
+      <c r="F185"/>
+      <c r="G185"/>
+      <c r="H185"/>
+      <c r="I185"/>
+      <c r="J185"/>
+      <c r="K185"/>
+      <c r="L185"/>
+      <c r="M185"/>
+      <c r="N185"/>
+      <c r="O185"/>
+      <c r="P185"/>
+    </row>
+    <row r="186">
+      <c r="A186"/>
+      <c r="B186"/>
+      <c r="C186"/>
+      <c r="D186"/>
+      <c r="E186"/>
+      <c r="F186"/>
+      <c r="G186"/>
+      <c r="H186"/>
+      <c r="I186"/>
+      <c r="J186"/>
+      <c r="K186"/>
+      <c r="L186"/>
+      <c r="M186"/>
+      <c r="N186"/>
+      <c r="O186"/>
+      <c r="P186"/>
+    </row>
+    <row r="187">
+      <c r="A187"/>
+      <c r="B187"/>
+      <c r="C187"/>
+      <c r="D187"/>
+      <c r="E187"/>
+      <c r="F187"/>
+      <c r="G187"/>
+      <c r="H187"/>
+      <c r="I187"/>
+      <c r="J187"/>
+      <c r="K187"/>
+      <c r="L187"/>
+      <c r="M187"/>
+      <c r="N187"/>
+      <c r="O187"/>
+      <c r="P187"/>
+    </row>
+    <row r="188">
+      <c r="A188"/>
+      <c r="B188"/>
+      <c r="C188"/>
+      <c r="D188"/>
+      <c r="E188"/>
+      <c r="F188"/>
+      <c r="G188"/>
+      <c r="H188"/>
+      <c r="I188"/>
+      <c r="J188"/>
+      <c r="K188"/>
+      <c r="L188"/>
+      <c r="M188"/>
+      <c r="N188"/>
+      <c r="O188"/>
+      <c r="P188"/>
+    </row>
+    <row r="189">
+      <c r="A189"/>
+      <c r="B189"/>
+      <c r="C189"/>
+      <c r="D189"/>
+      <c r="E189"/>
+      <c r="F189"/>
+      <c r="G189"/>
+      <c r="H189"/>
+      <c r="I189"/>
+      <c r="J189"/>
+      <c r="K189"/>
+      <c r="L189"/>
+      <c r="M189"/>
+      <c r="N189"/>
+      <c r="O189"/>
+      <c r="P189"/>
+    </row>
+    <row r="190">
+      <c r="A190"/>
+      <c r="B190"/>
+      <c r="C190"/>
+      <c r="D190"/>
+      <c r="E190"/>
+      <c r="F190"/>
+      <c r="G190"/>
+      <c r="H190"/>
+      <c r="I190"/>
+      <c r="J190"/>
+      <c r="K190"/>
+      <c r="L190"/>
+      <c r="M190"/>
+      <c r="N190"/>
+      <c r="O190"/>
+      <c r="P190"/>
+    </row>
+    <row r="191">
+      <c r="A191"/>
+      <c r="B191"/>
+      <c r="C191"/>
+      <c r="D191"/>
+      <c r="E191"/>
+      <c r="F191"/>
+      <c r="G191"/>
+      <c r="H191"/>
+      <c r="I191"/>
+      <c r="J191"/>
+      <c r="K191"/>
+      <c r="L191"/>
+      <c r="M191"/>
+      <c r="N191"/>
+      <c r="O191"/>
+      <c r="P191"/>
+    </row>
+    <row r="192">
+      <c r="A192"/>
+      <c r="B192"/>
+      <c r="C192"/>
+      <c r="D192"/>
+      <c r="E192"/>
+      <c r="F192"/>
+      <c r="G192"/>
+      <c r="H192"/>
+      <c r="I192"/>
+      <c r="J192"/>
+      <c r="K192"/>
+      <c r="L192"/>
+      <c r="M192"/>
+      <c r="N192"/>
+      <c r="O192"/>
+      <c r="P192"/>
+    </row>
+    <row r="193">
+      <c r="A193"/>
+      <c r="B193"/>
+      <c r="C193"/>
+      <c r="D193"/>
+      <c r="E193"/>
+      <c r="F193"/>
+      <c r="G193"/>
+      <c r="H193"/>
+      <c r="I193"/>
+      <c r="J193"/>
+      <c r="K193"/>
+      <c r="L193"/>
+      <c r="M193"/>
+      <c r="N193"/>
+      <c r="O193"/>
+      <c r="P193"/>
+    </row>
+    <row r="194">
+      <c r="A194"/>
+      <c r="B194"/>
+      <c r="C194"/>
+      <c r="D194"/>
+      <c r="E194"/>
+      <c r="F194"/>
+      <c r="G194"/>
+      <c r="H194"/>
+      <c r="I194"/>
+      <c r="J194"/>
+      <c r="K194"/>
+      <c r="L194"/>
+      <c r="M194"/>
+      <c r="N194"/>
+      <c r="O194"/>
+      <c r="P194"/>
+    </row>
+    <row r="195">
+      <c r="A195"/>
+      <c r="B195"/>
+      <c r="C195"/>
+      <c r="D195"/>
+      <c r="E195"/>
+      <c r="F195"/>
+      <c r="G195"/>
+      <c r="H195"/>
+      <c r="I195"/>
+      <c r="J195"/>
+      <c r="K195"/>
+      <c r="L195"/>
+      <c r="M195"/>
+      <c r="N195"/>
+      <c r="O195"/>
+      <c r="P195"/>
+    </row>
+    <row r="196">
+      <c r="A196"/>
+      <c r="B196"/>
+      <c r="C196"/>
+      <c r="D196"/>
+      <c r="E196"/>
+      <c r="F196"/>
+      <c r="G196"/>
+      <c r="H196"/>
+      <c r="I196"/>
+      <c r="J196"/>
+      <c r="K196"/>
+      <c r="L196"/>
+      <c r="M196"/>
+      <c r="N196"/>
+      <c r="O196"/>
+      <c r="P196"/>
+    </row>
+    <row r="197">
+      <c r="A197"/>
+      <c r="B197"/>
+      <c r="C197"/>
+      <c r="D197"/>
+      <c r="E197"/>
+      <c r="F197"/>
+      <c r="G197"/>
+      <c r="H197"/>
+      <c r="I197"/>
+      <c r="J197"/>
+      <c r="K197"/>
+      <c r="L197"/>
+      <c r="M197"/>
+      <c r="N197"/>
+      <c r="O197"/>
+      <c r="P197"/>
+    </row>
+    <row r="198">
+      <c r="A198"/>
+      <c r="B198"/>
+      <c r="C198"/>
+      <c r="D198"/>
+      <c r="E198"/>
+      <c r="F198"/>
+      <c r="G198"/>
+      <c r="H198"/>
+      <c r="I198"/>
+      <c r="J198"/>
+      <c r="K198"/>
+      <c r="L198"/>
+      <c r="M198"/>
+      <c r="N198"/>
+      <c r="O198"/>
+      <c r="P198"/>
+    </row>
+    <row r="199">
+      <c r="A199"/>
+      <c r="B199"/>
+      <c r="C199"/>
+      <c r="D199"/>
+      <c r="E199"/>
+      <c r="F199"/>
+      <c r="G199"/>
+      <c r="H199"/>
+      <c r="I199"/>
+      <c r="J199"/>
+      <c r="K199"/>
+      <c r="L199"/>
+      <c r="M199"/>
+      <c r="N199"/>
+      <c r="O199"/>
+      <c r="P199"/>
+    </row>
+    <row r="200">
+      <c r="A200"/>
+      <c r="B200"/>
+      <c r="C200"/>
+      <c r="D200"/>
+      <c r="E200"/>
+      <c r="F200"/>
+      <c r="G200"/>
+      <c r="H200"/>
+      <c r="I200"/>
+      <c r="J200"/>
+      <c r="K200"/>
+      <c r="L200"/>
+      <c r="M200"/>
+      <c r="N200"/>
+      <c r="O200"/>
+      <c r="P200"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7501,7 +9397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{394261B5-D25B-CE49-9A6E-C37BEA16F0F6}">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -7637,10 +9533,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>199</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>198</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -8514,385 +10410,600 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8328868A-36BE-4D4D-B83A-7843CB0DAB02}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="49.83203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.5" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>184</v>
+      </c>
+      <c r="B12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>184</v>
+      </c>
+      <c r="B13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>175</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>175</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>175</v>
+      </c>
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B17" t="s">
+        <v>193</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>176</v>
+      </c>
+      <c r="B18" t="s">
+        <v>194</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>177</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>176</v>
+      </c>
+      <c r="B19" t="s">
+        <v>195</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>180</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20" t="s">
+        <v>196</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>180</v>
+      </c>
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B21" t="s">
+        <v>197</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>180</v>
+      </c>
+      <c r="E21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+    </row>
+    <row r="25">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+    </row>
+    <row r="26">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+    </row>
+    <row r="28">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+    </row>
+    <row r="29">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+    </row>
+    <row r="30">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+    </row>
+    <row r="31">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+    </row>
+    <row r="32">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+    </row>
+    <row r="33">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+    </row>
+    <row r="34">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+    </row>
+    <row r="35">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+    </row>
+    <row r="36">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+    </row>
+    <row r="37">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+    </row>
+    <row r="38">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+    </row>
+    <row r="39">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+    </row>
+    <row r="40">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+    </row>
+    <row r="41">
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+    </row>
+    <row r="42">
+      <c r="A42"/>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+    </row>
+    <row r="43">
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+    </row>
+    <row r="45">
+      <c r="A45"/>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+    </row>
+    <row r="46">
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+    </row>
+    <row r="47">
+      <c r="A47"/>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+    </row>
+    <row r="48">
+      <c r="A48"/>
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+    </row>
+    <row r="49">
+      <c r="A49"/>
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+    </row>
+    <row r="50">
+      <c r="A50"/>
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85421616-C248-1B49-8815-799B0EA6E3AD}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-    </row>
-    <row r="3">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-    </row>
-    <row r="4">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-    </row>
-    <row r="5">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-    </row>
-    <row r="6">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-    </row>
-    <row r="7">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-    </row>
-    <row r="8">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-    </row>
-    <row r="9">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-    </row>
-    <row r="10">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-    </row>
-    <row r="11">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-    </row>
-    <row r="12">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-    </row>
-    <row r="13">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-    </row>
-    <row r="14">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-    </row>
-    <row r="15">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-    </row>
-    <row r="16">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-    </row>
-    <row r="17">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-    </row>
-    <row r="18">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-    </row>
-    <row r="19">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-    </row>
-    <row r="20">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-    </row>
-    <row r="21">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-    </row>
-    <row r="23">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-    </row>
-    <row r="24">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-    </row>
-    <row r="25">
-      <c r="A25"/>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-    </row>
-    <row r="26">
-      <c r="A26"/>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-    </row>
-    <row r="27">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-    </row>
-    <row r="28">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-    </row>
-    <row r="29">
-      <c r="A29"/>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-    </row>
-    <row r="30">
-      <c r="A30"/>
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-    </row>
-    <row r="31">
-      <c r="A31"/>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-    </row>
-    <row r="32">
-      <c r="A32"/>
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-    </row>
-    <row r="33">
-      <c r="A33"/>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-    </row>
-    <row r="34">
-      <c r="A34"/>
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-    </row>
-    <row r="35">
-      <c r="A35"/>
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-    </row>
-    <row r="36">
-      <c r="A36"/>
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36"/>
-    </row>
-    <row r="37">
-      <c r="A37"/>
-      <c r="B37"/>
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37"/>
-    </row>
-    <row r="38">
-      <c r="A38"/>
-      <c r="B38"/>
-      <c r="C38"/>
-      <c r="D38"/>
-      <c r="E38"/>
-    </row>
-    <row r="39">
-      <c r="A39"/>
-      <c r="B39"/>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-    </row>
-    <row r="40">
-      <c r="A40"/>
-      <c r="B40"/>
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40"/>
-    </row>
-    <row r="41">
-      <c r="A41"/>
-      <c r="B41"/>
-      <c r="C41"/>
-      <c r="D41"/>
-      <c r="E41"/>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42"/>
-      <c r="C42"/>
-      <c r="D42"/>
-      <c r="E42"/>
-    </row>
-    <row r="43">
-      <c r="A43"/>
-      <c r="B43"/>
-      <c r="C43"/>
-      <c r="D43"/>
-      <c r="E43"/>
-    </row>
-    <row r="44">
-      <c r="A44"/>
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44"/>
-    </row>
-    <row r="45">
-      <c r="A45"/>
-      <c r="B45"/>
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45"/>
-    </row>
-    <row r="46">
-      <c r="A46"/>
-      <c r="B46"/>
-      <c r="C46"/>
-      <c r="D46"/>
-      <c r="E46"/>
-    </row>
-    <row r="47">
-      <c r="A47"/>
-      <c r="B47"/>
-      <c r="C47"/>
-      <c r="D47"/>
-      <c r="E47"/>
-    </row>
-    <row r="48">
-      <c r="A48"/>
-      <c r="B48"/>
-      <c r="C48"/>
-      <c r="D48"/>
-      <c r="E48"/>
-    </row>
-    <row r="49">
-      <c r="A49"/>
-      <c r="B49"/>
-      <c r="C49"/>
-      <c r="D49"/>
-      <c r="E49"/>
-    </row>
-    <row r="50">
-      <c r="A50"/>
-      <c r="B50"/>
-      <c r="C50"/>
-      <c r="D50"/>
-      <c r="E50"/>
-    </row>
-  </sheetData>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.1640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+  </cols>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/test-output/QuotaAppReport.xlsx
+++ b/test-output/QuotaAppReport.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13144" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14968" uniqueCount="329">
   <si>
     <t>negative case - invalid phone number and password</t>
   </si>
@@ -10170,7 +10170,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9AD622-D8BE-8C45-BB88-7A2863DA5FF8}">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:P100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
@@ -10189,7 +10189,7 @@
     <col min="12" max="12" bestFit="true" customWidth="true" width="8.5" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -10239,7 +10239,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -10250,10 +10250,10 @@
         <v>256</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -10286,10 +10286,10 @@
         <v>50</v>
       </c>
       <c r="P2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -10336,10 +10336,10 @@
         <v>50</v>
       </c>
       <c r="P3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -10350,10 +10350,10 @@
         <v>256</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="F4" t="s">
         <v>50</v>
@@ -10389,7 +10389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>264</v>
       </c>
@@ -10439,7 +10439,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -10486,10 +10486,10 @@
         <v>50</v>
       </c>
       <c r="P6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>167</v>
       </c>
@@ -10536,10 +10536,10 @@
         <v>50</v>
       </c>
       <c r="P7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -10586,10 +10586,10 @@
         <v>50</v>
       </c>
       <c r="P8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -10636,10 +10636,10 @@
         <v>50</v>
       </c>
       <c r="P9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -10686,10 +10686,10 @@
         <v>50</v>
       </c>
       <c r="P10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -10700,10 +10700,10 @@
         <v>256</v>
       </c>
       <c r="D11" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="F11" t="s">
         <v>50</v>
@@ -10739,7 +10739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>265</v>
       </c>
@@ -10789,7 +10789,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>74</v>
       </c>
@@ -10839,7 +10839,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>267</v>
       </c>
@@ -10889,7 +10889,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>268</v>
       </c>
@@ -10939,7 +10939,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>269</v>
       </c>
@@ -10989,7 +10989,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>271</v>
       </c>
@@ -11039,7 +11039,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>273</v>
       </c>
@@ -11089,7 +11089,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>274</v>
       </c>
@@ -11139,7 +11139,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>74</v>
       </c>
@@ -11189,7 +11189,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>276</v>
       </c>
@@ -11239,7 +11239,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>76</v>
       </c>
@@ -11289,7 +11289,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>278</v>
       </c>
@@ -11339,7 +11339,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>279</v>
       </c>
@@ -11389,7 +11389,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>280</v>
       </c>
@@ -11439,7 +11439,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>281</v>
       </c>
@@ -11489,7 +11489,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" t="s">
         <v>282</v>
       </c>
@@ -11539,7 +11539,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" t="s">
         <v>283</v>
       </c>
@@ -11589,7 +11589,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="A29" t="s">
         <v>284</v>
       </c>
@@ -11639,7 +11639,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="A30" t="s">
         <v>285</v>
       </c>
@@ -11689,7 +11689,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="A31" t="s">
         <v>286</v>
       </c>
@@ -11739,7 +11739,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="A32" t="s">
         <v>287</v>
       </c>
@@ -11789,7 +11789,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="A33" t="s">
         <v>288</v>
       </c>
@@ -11839,7 +11839,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="A34" t="s">
         <v>289</v>
       </c>
@@ -11889,7 +11889,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="A35" t="s">
         <v>290</v>
       </c>
@@ -11939,7 +11939,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="A36" t="s">
         <v>291</v>
       </c>
@@ -11989,7 +11989,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="A37" t="s">
         <v>292</v>
       </c>
@@ -12039,7 +12039,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="A38" t="s">
         <v>293</v>
       </c>
@@ -12088,6 +12088,1122 @@
       <c r="P38" t="s">
         <v>12</v>
       </c>
+    </row>
+    <row r="39">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+    </row>
+    <row r="40">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+    </row>
+    <row r="41">
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+    </row>
+    <row r="42">
+      <c r="A42"/>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+    </row>
+    <row r="43">
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+    </row>
+    <row r="45">
+      <c r="A45"/>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+    </row>
+    <row r="46">
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+    </row>
+    <row r="47">
+      <c r="A47"/>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+    </row>
+    <row r="48">
+      <c r="A48"/>
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+    </row>
+    <row r="49">
+      <c r="A49"/>
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+    </row>
+    <row r="50">
+      <c r="A50"/>
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+    </row>
+    <row r="51">
+      <c r="A51"/>
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+    </row>
+    <row r="52">
+      <c r="A52"/>
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+    </row>
+    <row r="53">
+      <c r="A53"/>
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53"/>
+      <c r="O53"/>
+      <c r="P53"/>
+    </row>
+    <row r="54">
+      <c r="A54"/>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+    </row>
+    <row r="55">
+      <c r="A55"/>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+    </row>
+    <row r="56">
+      <c r="A56"/>
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+    </row>
+    <row r="57">
+      <c r="A57"/>
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+    </row>
+    <row r="58">
+      <c r="A58"/>
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+    </row>
+    <row r="59">
+      <c r="A59"/>
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
+    </row>
+    <row r="60">
+      <c r="A60"/>
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+    </row>
+    <row r="61">
+      <c r="A61"/>
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
+    </row>
+    <row r="62">
+      <c r="A62"/>
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62"/>
+    </row>
+    <row r="63">
+      <c r="A63"/>
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63"/>
+    </row>
+    <row r="64">
+      <c r="A64"/>
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="P64"/>
+    </row>
+    <row r="65">
+      <c r="A65"/>
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+      <c r="O65"/>
+      <c r="P65"/>
+    </row>
+    <row r="66">
+      <c r="A66"/>
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="O66"/>
+      <c r="P66"/>
+    </row>
+    <row r="67">
+      <c r="A67"/>
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67"/>
+      <c r="O67"/>
+      <c r="P67"/>
+    </row>
+    <row r="68">
+      <c r="A68"/>
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68"/>
+      <c r="O68"/>
+      <c r="P68"/>
+    </row>
+    <row r="69">
+      <c r="A69"/>
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69"/>
+    </row>
+    <row r="70">
+      <c r="A70"/>
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70"/>
+      <c r="O70"/>
+      <c r="P70"/>
+    </row>
+    <row r="71">
+      <c r="A71"/>
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71"/>
+      <c r="P71"/>
+    </row>
+    <row r="72">
+      <c r="A72"/>
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
+      <c r="O72"/>
+      <c r="P72"/>
+    </row>
+    <row r="73">
+      <c r="A73"/>
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73"/>
+      <c r="O73"/>
+      <c r="P73"/>
+    </row>
+    <row r="74">
+      <c r="A74"/>
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="O74"/>
+      <c r="P74"/>
+    </row>
+    <row r="75">
+      <c r="A75"/>
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="O75"/>
+      <c r="P75"/>
+    </row>
+    <row r="76">
+      <c r="A76"/>
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="L76"/>
+      <c r="M76"/>
+      <c r="N76"/>
+      <c r="O76"/>
+      <c r="P76"/>
+    </row>
+    <row r="77">
+      <c r="A77"/>
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77"/>
+      <c r="J77"/>
+      <c r="K77"/>
+      <c r="L77"/>
+      <c r="M77"/>
+      <c r="N77"/>
+      <c r="O77"/>
+      <c r="P77"/>
+    </row>
+    <row r="78">
+      <c r="A78"/>
+      <c r="B78"/>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78"/>
+      <c r="J78"/>
+      <c r="K78"/>
+      <c r="L78"/>
+      <c r="M78"/>
+      <c r="N78"/>
+      <c r="O78"/>
+      <c r="P78"/>
+    </row>
+    <row r="79">
+      <c r="A79"/>
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79"/>
+      <c r="J79"/>
+      <c r="K79"/>
+      <c r="L79"/>
+      <c r="M79"/>
+      <c r="N79"/>
+      <c r="O79"/>
+      <c r="P79"/>
+    </row>
+    <row r="80">
+      <c r="A80"/>
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="J80"/>
+      <c r="K80"/>
+      <c r="L80"/>
+      <c r="M80"/>
+      <c r="N80"/>
+      <c r="O80"/>
+      <c r="P80"/>
+    </row>
+    <row r="81">
+      <c r="A81"/>
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81"/>
+      <c r="J81"/>
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="M81"/>
+      <c r="N81"/>
+      <c r="O81"/>
+      <c r="P81"/>
+    </row>
+    <row r="82">
+      <c r="A82"/>
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
+      <c r="J82"/>
+      <c r="K82"/>
+      <c r="L82"/>
+      <c r="M82"/>
+      <c r="N82"/>
+      <c r="O82"/>
+      <c r="P82"/>
+    </row>
+    <row r="83">
+      <c r="A83"/>
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83"/>
+      <c r="J83"/>
+      <c r="K83"/>
+      <c r="L83"/>
+      <c r="M83"/>
+      <c r="N83"/>
+      <c r="O83"/>
+      <c r="P83"/>
+    </row>
+    <row r="84">
+      <c r="A84"/>
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
+      <c r="J84"/>
+      <c r="K84"/>
+      <c r="L84"/>
+      <c r="M84"/>
+      <c r="N84"/>
+      <c r="O84"/>
+      <c r="P84"/>
+    </row>
+    <row r="85">
+      <c r="A85"/>
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85"/>
+      <c r="J85"/>
+      <c r="K85"/>
+      <c r="L85"/>
+      <c r="M85"/>
+      <c r="N85"/>
+      <c r="O85"/>
+      <c r="P85"/>
+    </row>
+    <row r="86">
+      <c r="A86"/>
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="J86"/>
+      <c r="K86"/>
+      <c r="L86"/>
+      <c r="M86"/>
+      <c r="N86"/>
+      <c r="O86"/>
+      <c r="P86"/>
+    </row>
+    <row r="87">
+      <c r="A87"/>
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="I87"/>
+      <c r="J87"/>
+      <c r="K87"/>
+      <c r="L87"/>
+      <c r="M87"/>
+      <c r="N87"/>
+      <c r="O87"/>
+      <c r="P87"/>
+    </row>
+    <row r="88">
+      <c r="A88"/>
+      <c r="B88"/>
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
+      <c r="H88"/>
+      <c r="I88"/>
+      <c r="J88"/>
+      <c r="K88"/>
+      <c r="L88"/>
+      <c r="M88"/>
+      <c r="N88"/>
+      <c r="O88"/>
+      <c r="P88"/>
+    </row>
+    <row r="89">
+      <c r="A89"/>
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="H89"/>
+      <c r="I89"/>
+      <c r="J89"/>
+      <c r="K89"/>
+      <c r="L89"/>
+      <c r="M89"/>
+      <c r="N89"/>
+      <c r="O89"/>
+      <c r="P89"/>
+    </row>
+    <row r="90">
+      <c r="A90"/>
+      <c r="B90"/>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+      <c r="H90"/>
+      <c r="I90"/>
+      <c r="J90"/>
+      <c r="K90"/>
+      <c r="L90"/>
+      <c r="M90"/>
+      <c r="N90"/>
+      <c r="O90"/>
+      <c r="P90"/>
+    </row>
+    <row r="91">
+      <c r="A91"/>
+      <c r="B91"/>
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
+      <c r="H91"/>
+      <c r="I91"/>
+      <c r="J91"/>
+      <c r="K91"/>
+      <c r="L91"/>
+      <c r="M91"/>
+      <c r="N91"/>
+      <c r="O91"/>
+      <c r="P91"/>
+    </row>
+    <row r="92">
+      <c r="A92"/>
+      <c r="B92"/>
+      <c r="C92"/>
+      <c r="D92"/>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92"/>
+      <c r="H92"/>
+      <c r="I92"/>
+      <c r="J92"/>
+      <c r="K92"/>
+      <c r="L92"/>
+      <c r="M92"/>
+      <c r="N92"/>
+      <c r="O92"/>
+      <c r="P92"/>
+    </row>
+    <row r="93">
+      <c r="A93"/>
+      <c r="B93"/>
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93"/>
+      <c r="H93"/>
+      <c r="I93"/>
+      <c r="J93"/>
+      <c r="K93"/>
+      <c r="L93"/>
+      <c r="M93"/>
+      <c r="N93"/>
+      <c r="O93"/>
+      <c r="P93"/>
+    </row>
+    <row r="94">
+      <c r="A94"/>
+      <c r="B94"/>
+      <c r="C94"/>
+      <c r="D94"/>
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94"/>
+      <c r="H94"/>
+      <c r="I94"/>
+      <c r="J94"/>
+      <c r="K94"/>
+      <c r="L94"/>
+      <c r="M94"/>
+      <c r="N94"/>
+      <c r="O94"/>
+      <c r="P94"/>
+    </row>
+    <row r="95">
+      <c r="A95"/>
+      <c r="B95"/>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="I95"/>
+      <c r="J95"/>
+      <c r="K95"/>
+      <c r="L95"/>
+      <c r="M95"/>
+      <c r="N95"/>
+      <c r="O95"/>
+      <c r="P95"/>
+    </row>
+    <row r="96">
+      <c r="A96"/>
+      <c r="B96"/>
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96"/>
+      <c r="H96"/>
+      <c r="I96"/>
+      <c r="J96"/>
+      <c r="K96"/>
+      <c r="L96"/>
+      <c r="M96"/>
+      <c r="N96"/>
+      <c r="O96"/>
+      <c r="P96"/>
+    </row>
+    <row r="97">
+      <c r="A97"/>
+      <c r="B97"/>
+      <c r="C97"/>
+      <c r="D97"/>
+      <c r="E97"/>
+      <c r="F97"/>
+      <c r="G97"/>
+      <c r="H97"/>
+      <c r="I97"/>
+      <c r="J97"/>
+      <c r="K97"/>
+      <c r="L97"/>
+      <c r="M97"/>
+      <c r="N97"/>
+      <c r="O97"/>
+      <c r="P97"/>
+    </row>
+    <row r="98">
+      <c r="A98"/>
+      <c r="B98"/>
+      <c r="C98"/>
+      <c r="D98"/>
+      <c r="E98"/>
+      <c r="F98"/>
+      <c r="G98"/>
+      <c r="H98"/>
+      <c r="I98"/>
+      <c r="J98"/>
+      <c r="K98"/>
+      <c r="L98"/>
+      <c r="M98"/>
+      <c r="N98"/>
+      <c r="O98"/>
+      <c r="P98"/>
+    </row>
+    <row r="99">
+      <c r="A99"/>
+      <c r="B99"/>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99"/>
+      <c r="H99"/>
+      <c r="I99"/>
+      <c r="J99"/>
+      <c r="K99"/>
+      <c r="L99"/>
+      <c r="M99"/>
+      <c r="N99"/>
+      <c r="O99"/>
+      <c r="P99"/>
+    </row>
+    <row r="100">
+      <c r="A100"/>
+      <c r="B100"/>
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100"/>
+      <c r="H100"/>
+      <c r="I100"/>
+      <c r="J100"/>
+      <c r="K100"/>
+      <c r="L100"/>
+      <c r="M100"/>
+      <c r="N100"/>
+      <c r="O100"/>
+      <c r="P100"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test-output/QuotaAppReport.xlsx
+++ b/test-output/QuotaAppReport.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14968" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19358" uniqueCount="339">
   <si>
     <t>negative case - invalid phone number and password</t>
   </si>
@@ -1029,6 +1029,36 @@
   </si>
   <si>
     <t>Wrong otp</t>
+  </si>
+  <si>
+    <t>+601354219667</t>
+  </si>
+  <si>
+    <t>+601303913098</t>
+  </si>
+  <si>
+    <t>+6281252930XX</t>
+  </si>
+  <si>
+    <t>+62XYZ5769189</t>
+  </si>
+  <si>
+    <t>+6285785161797891675311</t>
+  </si>
+  <si>
+    <t>+628125293039874</t>
+  </si>
+  <si>
+    <t>+6281252930391</t>
+  </si>
+  <si>
+    <t>+6281252930390</t>
+  </si>
+  <si>
+    <t>+6281252930392</t>
+  </si>
+  <si>
+    <t>testregisterbackend@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1462,7 +1492,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -1482,7 +1512,7 @@
         <v>149</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -1491,7 +1521,7 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
       <c r="F5" t="s">
         <v>4</v>
@@ -1602,7 +1632,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
@@ -1622,7 +1652,7 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
@@ -1642,7 +1672,7 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -1662,7 +1692,7 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
@@ -1682,7 +1712,7 @@
         <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
       <c r="C15" t="s">
         <v>31</v>
@@ -1702,7 +1732,7 @@
         <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
       <c r="C16" t="s">
         <v>33</v>
@@ -3627,7 +3657,7 @@
         <v>254</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F6" t="s">
         <v>56</v>
@@ -3677,7 +3707,7 @@
         <v>254</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F7" t="s">
         <v>56</v>
@@ -3727,7 +3757,7 @@
         <v>254</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F8" t="s">
         <v>6</v>
@@ -3777,7 +3807,7 @@
         <v>254</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F9" t="s">
         <v>6</v>
@@ -3824,7 +3854,7 @@
         <v>169</v>
       </c>
       <c r="D10" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E10" t="s">
         <v>1</v>
@@ -3874,7 +3904,7 @@
         <v>169</v>
       </c>
       <c r="D11" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E11" t="s">
         <v>1</v>
@@ -3924,7 +3954,7 @@
         <v>169</v>
       </c>
       <c r="D12" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E12" t="s">
         <v>1</v>
@@ -3974,7 +4004,7 @@
         <v>169</v>
       </c>
       <c r="D13" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E13" t="s">
         <v>1</v>
@@ -4024,10 +4054,10 @@
         <v>169</v>
       </c>
       <c r="D14" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F14" t="s">
         <v>56</v>
@@ -4074,10 +4104,10 @@
         <v>169</v>
       </c>
       <c r="D15" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F15" t="s">
         <v>56</v>
@@ -4124,10 +4154,10 @@
         <v>169</v>
       </c>
       <c r="D16" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F16" t="s">
         <v>6</v>
@@ -4174,10 +4204,10 @@
         <v>169</v>
       </c>
       <c r="D17" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F17" t="s">
         <v>6</v>
@@ -4427,7 +4457,7 @@
         <v>254</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F22" t="s">
         <v>56</v>
@@ -4477,7 +4507,7 @@
         <v>254</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F23" t="s">
         <v>56</v>
@@ -4527,7 +4557,7 @@
         <v>254</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F24" t="s">
         <v>6</v>
@@ -4577,7 +4607,7 @@
         <v>254</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F25" t="s">
         <v>6</v>
@@ -4624,7 +4654,7 @@
         <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E26" t="s">
         <v>1</v>
@@ -4674,7 +4704,7 @@
         <v>57</v>
       </c>
       <c r="D27" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E27" t="s">
         <v>1</v>
@@ -4724,7 +4754,7 @@
         <v>57</v>
       </c>
       <c r="D28" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E28" t="s">
         <v>1</v>
@@ -4774,7 +4804,7 @@
         <v>57</v>
       </c>
       <c r="D29" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E29" t="s">
         <v>1</v>
@@ -4824,10 +4854,10 @@
         <v>57</v>
       </c>
       <c r="D30" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F30" t="s">
         <v>56</v>
@@ -4874,10 +4904,10 @@
         <v>57</v>
       </c>
       <c r="D31" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F31" t="s">
         <v>56</v>
@@ -4924,10 +4954,10 @@
         <v>57</v>
       </c>
       <c r="D32" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F32" t="s">
         <v>6</v>
@@ -4974,10 +5004,10 @@
         <v>57</v>
       </c>
       <c r="D33" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F33" t="s">
         <v>6</v>
@@ -5227,7 +5257,7 @@
         <v>254</v>
       </c>
       <c r="E38" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F38" t="s">
         <v>56</v>
@@ -5277,7 +5307,7 @@
         <v>254</v>
       </c>
       <c r="E39" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F39" t="s">
         <v>56</v>
@@ -5327,7 +5357,7 @@
         <v>254</v>
       </c>
       <c r="E40" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F40" t="s">
         <v>6</v>
@@ -5377,7 +5407,7 @@
         <v>254</v>
       </c>
       <c r="E41" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F41" t="s">
         <v>6</v>
@@ -5424,7 +5454,7 @@
         <v>169</v>
       </c>
       <c r="D42" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E42" t="s">
         <v>1</v>
@@ -5474,7 +5504,7 @@
         <v>169</v>
       </c>
       <c r="D43" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E43" t="s">
         <v>1</v>
@@ -5524,7 +5554,7 @@
         <v>169</v>
       </c>
       <c r="D44" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E44" t="s">
         <v>1</v>
@@ -5574,7 +5604,7 @@
         <v>169</v>
       </c>
       <c r="D45" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E45" t="s">
         <v>1</v>
@@ -5624,10 +5654,10 @@
         <v>169</v>
       </c>
       <c r="D46" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E46" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F46" t="s">
         <v>56</v>
@@ -5674,10 +5704,10 @@
         <v>169</v>
       </c>
       <c r="D47" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E47" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F47" t="s">
         <v>56</v>
@@ -5724,10 +5754,10 @@
         <v>169</v>
       </c>
       <c r="D48" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E48" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F48" t="s">
         <v>6</v>
@@ -5774,10 +5804,10 @@
         <v>169</v>
       </c>
       <c r="D49" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E49" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F49" t="s">
         <v>6</v>
@@ -6027,7 +6057,7 @@
         <v>254</v>
       </c>
       <c r="E54" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F54" t="s">
         <v>56</v>
@@ -6077,7 +6107,7 @@
         <v>254</v>
       </c>
       <c r="E55" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F55" t="s">
         <v>56</v>
@@ -6127,7 +6157,7 @@
         <v>254</v>
       </c>
       <c r="E56" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F56" t="s">
         <v>6</v>
@@ -6177,7 +6207,7 @@
         <v>254</v>
       </c>
       <c r="E57" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F57" t="s">
         <v>6</v>
@@ -6224,7 +6254,7 @@
         <v>57</v>
       </c>
       <c r="D58" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E58" t="s">
         <v>1</v>
@@ -6274,7 +6304,7 @@
         <v>57</v>
       </c>
       <c r="D59" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E59" t="s">
         <v>1</v>
@@ -6324,7 +6354,7 @@
         <v>57</v>
       </c>
       <c r="D60" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E60" t="s">
         <v>1</v>
@@ -6374,7 +6404,7 @@
         <v>57</v>
       </c>
       <c r="D61" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E61" t="s">
         <v>1</v>
@@ -6424,10 +6454,10 @@
         <v>57</v>
       </c>
       <c r="D62" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E62" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F62" t="s">
         <v>56</v>
@@ -6474,10 +6504,10 @@
         <v>57</v>
       </c>
       <c r="D63" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E63" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F63" t="s">
         <v>56</v>
@@ -6524,10 +6554,10 @@
         <v>57</v>
       </c>
       <c r="D64" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E64" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F64" t="s">
         <v>6</v>
@@ -6574,10 +6604,10 @@
         <v>57</v>
       </c>
       <c r="D65" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E65" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F65" t="s">
         <v>6</v>
@@ -6607,7 +6637,7 @@
         <v>14</v>
       </c>
       <c r="O65" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="P65" t="s">
         <v>4</v>
@@ -6624,10 +6654,10 @@
         <v>57</v>
       </c>
       <c r="D66" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E66" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F66" t="s">
         <v>6</v>
@@ -6674,10 +6704,10 @@
         <v>57</v>
       </c>
       <c r="D67" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E67" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F67" t="s">
         <v>6</v>
@@ -6724,10 +6754,10 @@
         <v>57</v>
       </c>
       <c r="D68" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E68" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F68" t="s">
         <v>6</v>
@@ -6774,10 +6804,10 @@
         <v>49</v>
       </c>
       <c r="D69" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E69" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F69" t="s">
         <v>6</v>
@@ -6824,10 +6854,10 @@
         <v>51</v>
       </c>
       <c r="D70" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E70" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F70" t="s">
         <v>6</v>
@@ -6874,10 +6904,10 @@
         <v>54</v>
       </c>
       <c r="D71" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E71" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F71" t="s">
         <v>6</v>
@@ -6924,10 +6954,10 @@
         <v>57</v>
       </c>
       <c r="D72" t="s">
-        <v>254</v>
+        <v>338</v>
       </c>
       <c r="E72" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F72" t="s">
         <v>6</v>
@@ -6960,7 +6990,7 @@
         <v>50</v>
       </c>
       <c r="P72" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73">
@@ -6974,7 +7004,7 @@
         <v>57</v>
       </c>
       <c r="D73" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E73" t="s">
         <v>1</v>
@@ -7024,7 +7054,7 @@
         <v>57</v>
       </c>
       <c r="D74" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E74" t="s">
         <v>166</v>
@@ -7074,7 +7104,7 @@
         <v>57</v>
       </c>
       <c r="D75" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E75" t="s">
         <v>17</v>
@@ -7086,10 +7116,10 @@
         <v>6</v>
       </c>
       <c r="H75" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I75" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="J75" t="s">
         <v>50</v>
@@ -7110,7 +7140,7 @@
         <v>50</v>
       </c>
       <c r="P75" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
@@ -7124,7 +7154,7 @@
         <v>57</v>
       </c>
       <c r="D76" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E76" t="s">
         <v>19</v>
@@ -7136,10 +7166,10 @@
         <v>6</v>
       </c>
       <c r="H76" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I76" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="J76" t="s">
         <v>50</v>
@@ -7160,7 +7190,7 @@
         <v>50</v>
       </c>
       <c r="P76" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77">
@@ -7174,7 +7204,7 @@
         <v>57</v>
       </c>
       <c r="D77" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E77" t="s">
         <v>21</v>
@@ -7186,10 +7216,10 @@
         <v>6</v>
       </c>
       <c r="H77" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I77" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="J77" t="s">
         <v>50</v>
@@ -7210,7 +7240,7 @@
         <v>50</v>
       </c>
       <c r="P77" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
@@ -7224,10 +7254,10 @@
         <v>57</v>
       </c>
       <c r="D78" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E78" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F78" t="s">
         <v>23</v>
@@ -7274,10 +7304,10 @@
         <v>57</v>
       </c>
       <c r="D79" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E79" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F79" t="s">
         <v>59</v>
@@ -7324,10 +7354,10 @@
         <v>57</v>
       </c>
       <c r="D80" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E80" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F80" t="s">
         <v>27</v>
@@ -7374,10 +7404,10 @@
         <v>57</v>
       </c>
       <c r="D81" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E81" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F81" t="s">
         <v>29</v>
@@ -7424,10 +7454,10 @@
         <v>57</v>
       </c>
       <c r="D82" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E82" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F82" t="s">
         <v>31</v>
@@ -7474,10 +7504,10 @@
         <v>57</v>
       </c>
       <c r="D83" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E83" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F83" t="s">
         <v>33</v>
@@ -7524,10 +7554,10 @@
         <v>57</v>
       </c>
       <c r="D84" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E84" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F84" t="s">
         <v>6</v>
@@ -7574,10 +7604,10 @@
         <v>57</v>
       </c>
       <c r="D85" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E85" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F85" t="s">
         <v>6</v>
@@ -7624,10 +7654,10 @@
         <v>57</v>
       </c>
       <c r="D86" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E86" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F86" t="s">
         <v>6</v>
@@ -7674,10 +7704,10 @@
         <v>57</v>
       </c>
       <c r="D87" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E87" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F87" t="s">
         <v>6</v>
@@ -7724,10 +7754,10 @@
         <v>57</v>
       </c>
       <c r="D88" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E88" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F88" t="s">
         <v>6</v>
@@ -7774,10 +7804,10 @@
         <v>57</v>
       </c>
       <c r="D89" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E89" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F89" t="s">
         <v>6</v>
@@ -7824,10 +7854,10 @@
         <v>57</v>
       </c>
       <c r="D90" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E90" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F90" t="s">
         <v>6</v>
@@ -7874,10 +7904,10 @@
         <v>57</v>
       </c>
       <c r="D91" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E91" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F91" t="s">
         <v>6</v>
@@ -7924,10 +7954,10 @@
         <v>57</v>
       </c>
       <c r="D92" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E92" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F92" t="s">
         <v>6</v>
@@ -7974,10 +8004,10 @@
         <v>57</v>
       </c>
       <c r="D93" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E93" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F93" t="s">
         <v>6</v>
@@ -8007,7 +8037,7 @@
         <v>14</v>
       </c>
       <c r="O93" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="P93" t="s">
         <v>4</v>
@@ -8024,10 +8054,10 @@
         <v>57</v>
       </c>
       <c r="D94" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E94" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F94" t="s">
         <v>6</v>
@@ -8074,10 +8104,10 @@
         <v>57</v>
       </c>
       <c r="D95" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E95" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F95" t="s">
         <v>6</v>
@@ -8124,10 +8154,10 @@
         <v>57</v>
       </c>
       <c r="D96" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E96" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F96" t="s">
         <v>6</v>
@@ -8174,10 +8204,10 @@
         <v>57</v>
       </c>
       <c r="D97" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E97" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F97" t="s">
         <v>6</v>
@@ -8224,10 +8254,10 @@
         <v>57</v>
       </c>
       <c r="D98" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E98" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F98" t="s">
         <v>6</v>
@@ -8260,7 +8290,7 @@
         <v>327</v>
       </c>
       <c r="P98" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99">
@@ -8274,10 +8304,10 @@
         <v>57</v>
       </c>
       <c r="D99" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E99" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F99" t="s">
         <v>6</v>
@@ -8307,7 +8337,7 @@
         <v>14</v>
       </c>
       <c r="O99" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="P99" t="s">
         <v>12</v>
@@ -8324,10 +8354,10 @@
         <v>57</v>
       </c>
       <c r="D100" t="s">
-        <v>255</v>
+        <v>338</v>
       </c>
       <c r="E100" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="F100" t="s">
         <v>6</v>
@@ -8357,10 +8387,10 @@
         <v>171</v>
       </c>
       <c r="O100" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P100" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101">
@@ -10250,10 +10280,10 @@
         <v>256</v>
       </c>
       <c r="D2" t="s">
-        <v>171</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -10286,7 +10316,7 @@
         <v>50</v>
       </c>
       <c r="P2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -10344,16 +10374,16 @@
         <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
       <c r="C4" t="s">
         <v>256</v>
       </c>
       <c r="D4" t="s">
-        <v>171</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s">
         <v>50</v>
@@ -10386,7 +10416,7 @@
         <v>50</v>
       </c>
       <c r="P4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -10394,7 +10424,7 @@
         <v>264</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
       <c r="C5" t="s">
         <v>263</v>
@@ -10433,7 +10463,7 @@
         <v>14</v>
       </c>
       <c r="O5" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
       <c r="P5" t="s">
         <v>12</v>
@@ -10694,16 +10724,16 @@
         <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
       <c r="C11" t="s">
         <v>256</v>
       </c>
       <c r="D11" t="s">
-        <v>171</v>
+        <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s">
         <v>50</v>
@@ -10736,7 +10766,7 @@
         <v>50</v>
       </c>
       <c r="P11" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -10744,7 +10774,7 @@
         <v>265</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
       <c r="C12" t="s">
         <v>263</v>
@@ -10794,7 +10824,7 @@
         <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
       <c r="C13" t="s">
         <v>263</v>
@@ -10844,7 +10874,7 @@
         <v>267</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
       <c r="C14" t="s">
         <v>263</v>
@@ -10894,7 +10924,7 @@
         <v>268</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
       <c r="C15" t="s">
         <v>263</v>
@@ -10933,7 +10963,7 @@
         <v>14</v>
       </c>
       <c r="O15" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
       <c r="P15" t="s">
         <v>12</v>
@@ -10944,7 +10974,7 @@
         <v>269</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
       <c r="C16" t="s">
         <v>263</v>
@@ -10994,7 +11024,7 @@
         <v>271</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
       <c r="C17" t="s">
         <v>263</v>
@@ -11044,7 +11074,7 @@
         <v>273</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
       <c r="C18" t="s">
         <v>263</v>
@@ -11094,7 +11124,7 @@
         <v>274</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
       <c r="C19" t="s">
         <v>263</v>
@@ -11144,7 +11174,7 @@
         <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
       <c r="C20" t="s">
         <v>263</v>
@@ -11194,7 +11224,7 @@
         <v>276</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
       <c r="C21" t="s">
         <v>263</v>
@@ -11233,7 +11263,7 @@
         <v>14</v>
       </c>
       <c r="O21" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
       <c r="P21" t="s">
         <v>12</v>
@@ -11244,7 +11274,7 @@
         <v>76</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
       <c r="C22" t="s">
         <v>263</v>
@@ -11294,7 +11324,7 @@
         <v>278</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
       <c r="C23" t="s">
         <v>263</v>
@@ -11344,7 +11374,7 @@
         <v>279</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
       <c r="C24" t="s">
         <v>263</v>
@@ -11394,7 +11424,7 @@
         <v>280</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
       <c r="C25" t="s">
         <v>263</v>
@@ -11444,7 +11474,7 @@
         <v>281</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
       <c r="C26" t="s">
         <v>263</v>
@@ -11483,7 +11513,7 @@
         <v>14</v>
       </c>
       <c r="O26" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
       <c r="P26" t="s">
         <v>12</v>
@@ -11494,7 +11524,7 @@
         <v>282</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
       <c r="C27" t="s">
         <v>263</v>
@@ -11544,7 +11574,7 @@
         <v>283</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
       <c r="C28" t="s">
         <v>263</v>
@@ -11594,7 +11624,7 @@
         <v>284</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
       <c r="C29" t="s">
         <v>263</v>
@@ -11644,7 +11674,7 @@
         <v>285</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
       <c r="C30" t="s">
         <v>263</v>
@@ -11694,7 +11724,7 @@
         <v>286</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
       <c r="C31" t="s">
         <v>263</v>
@@ -11744,7 +11774,7 @@
         <v>287</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
       <c r="C32" t="s">
         <v>263</v>
@@ -11794,7 +11824,7 @@
         <v>288</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
       <c r="C33" t="s">
         <v>263</v>
@@ -11844,7 +11874,7 @@
         <v>289</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
       <c r="C34" t="s">
         <v>263</v>
@@ -11894,7 +11924,7 @@
         <v>290</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
       <c r="C35" t="s">
         <v>263</v>
@@ -11944,7 +11974,7 @@
         <v>291</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
       <c r="C36" t="s">
         <v>263</v>
@@ -11994,7 +12024,7 @@
         <v>292</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
       <c r="C37" t="s">
         <v>263</v>
@@ -12044,7 +12074,7 @@
         <v>293</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
       <c r="C38" t="s">
         <v>263</v>
@@ -13402,7 +13432,7 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>329</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -13411,7 +13441,7 @@
         <v>151</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -13419,7 +13449,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>330</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
@@ -13428,7 +13458,7 @@
         <v>151</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -20350,13 +20380,13 @@
         <v>152</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -20381,10 +20411,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>331</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -20398,10 +20428,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>332</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -20415,10 +20445,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>167</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>333</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -20432,10 +20462,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>167</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>334</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -20449,10 +20479,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>310</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -20466,10 +20496,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>311</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -20483,10 +20513,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>312</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -20500,10 +20530,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>313</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>

--- a/test-output/QuotaAppReport.xlsx
+++ b/test-output/QuotaAppReport.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19358" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19559" uniqueCount="339">
   <si>
     <t>negative case - invalid phone number and password</t>
   </si>

--- a/test-output/QuotaAppReport.xlsx
+++ b/test-output/QuotaAppReport.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19559" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22077" uniqueCount="346">
   <si>
     <t>negative case - invalid phone number and password</t>
   </si>
@@ -1059,6 +1059,27 @@
   </si>
   <si>
     <t>testregisterbackend@gmail.com</t>
+  </si>
+  <si>
+    <t>+6281252930393</t>
+  </si>
+  <si>
+    <t>+6281252930385</t>
+  </si>
+  <si>
+    <t>8000081252930385</t>
+  </si>
+  <si>
+    <t>testchangepasswordbackend@gmail.com</t>
+  </si>
+  <si>
+    <t>+6281252930396</t>
+  </si>
+  <si>
+    <t>Your otp length must be 4</t>
+  </si>
+  <si>
+    <t>Your Password doesnt match</t>
   </si>
 </sst>
 </file>
@@ -14348,7 +14369,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="D10" t="s">
         <v>203</v>
@@ -14404,7 +14425,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="D11" t="s">
         <v>203</v>
@@ -14460,7 +14481,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="D12" t="s">
         <v>203</v>
@@ -14516,7 +14537,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="D13" t="s">
         <v>203</v>
@@ -14572,7 +14593,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="D14" t="s">
         <v>153</v>
@@ -14628,7 +14649,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="D15" t="s">
         <v>153</v>
@@ -14684,7 +14705,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="D16" t="s">
         <v>153</v>
@@ -14740,7 +14761,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="D17" t="s">
         <v>153</v>
@@ -14793,7 +14814,7 @@
         <v>219</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
@@ -14849,7 +14870,7 @@
         <v>220</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
@@ -14905,7 +14926,7 @@
         <v>221</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
@@ -14961,7 +14982,7 @@
         <v>222</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
@@ -15017,7 +15038,7 @@
         <v>223</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
@@ -15073,7 +15094,7 @@
         <v>224</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
@@ -15129,7 +15150,7 @@
         <v>225</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
@@ -15185,7 +15206,7 @@
         <v>226</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
@@ -15241,10 +15262,10 @@
         <v>227</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="D26" t="s">
         <v>203</v>
@@ -15297,10 +15318,10 @@
         <v>228</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="D27" t="s">
         <v>203</v>
@@ -15353,10 +15374,10 @@
         <v>229</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="D28" t="s">
         <v>203</v>
@@ -15409,10 +15430,10 @@
         <v>230</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="D29" t="s">
         <v>203</v>
@@ -15465,10 +15486,10 @@
         <v>231</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="D30" t="s">
         <v>153</v>
@@ -15521,10 +15542,10 @@
         <v>232</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="D31" t="s">
         <v>153</v>
@@ -15577,10 +15598,10 @@
         <v>233</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="D32" t="s">
         <v>153</v>
@@ -15633,10 +15654,10 @@
         <v>234</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="D33" t="s">
         <v>153</v>
@@ -15657,7 +15678,7 @@
         <v>236</v>
       </c>
       <c r="J33" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="K33" t="s">
         <v>83</v>
@@ -15692,7 +15713,7 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="D34" t="s">
         <v>153</v>
@@ -15748,7 +15769,7 @@
         <v>166</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="D35" t="s">
         <v>153</v>
@@ -15804,7 +15825,7 @@
         <v>17</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="D36" t="s">
         <v>153</v>
@@ -15860,7 +15881,7 @@
         <v>19</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="D37" t="s">
         <v>153</v>
@@ -15916,7 +15937,7 @@
         <v>21</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="D38" t="s">
         <v>153</v>
@@ -15969,7 +15990,7 @@
         <v>242</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
@@ -16025,7 +16046,7 @@
         <v>243</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="C40" t="s">
         <v>166</v>
@@ -16081,7 +16102,7 @@
         <v>244</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="C41" t="s">
         <v>17</v>
@@ -16137,7 +16158,7 @@
         <v>245</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="C42" t="s">
         <v>19</v>
@@ -16193,7 +16214,7 @@
         <v>246</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="C43" t="s">
         <v>21</v>
@@ -16249,10 +16270,10 @@
         <v>247</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="D44" t="s">
         <v>203</v>
@@ -16305,10 +16326,10 @@
         <v>248</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="D45" t="s">
         <v>153</v>
@@ -16361,10 +16382,10 @@
         <v>190</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="D46" t="s">
         <v>153</v>
@@ -16417,10 +16438,10 @@
         <v>294</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="D47" t="s">
         <v>153</v>
@@ -16473,10 +16494,10 @@
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="D48" t="s">
         <v>153</v>
@@ -16529,10 +16550,10 @@
         <v>295</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="D49" t="s">
         <v>153</v>
@@ -16553,7 +16574,7 @@
         <v>236</v>
       </c>
       <c r="J49" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="K49" t="s">
         <v>85</v>
@@ -16585,10 +16606,10 @@
         <v>296</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="D50" t="s">
         <v>153</v>
@@ -16609,7 +16630,7 @@
         <v>236</v>
       </c>
       <c r="J50" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="K50" t="s">
         <v>83</v>
@@ -16641,10 +16662,10 @@
         <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="D51" t="s">
         <v>153</v>
@@ -16697,10 +16718,10 @@
         <v>167</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="D52" t="s">
         <v>153</v>
@@ -16753,10 +16774,10 @@
         <v>16</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="D53" t="s">
         <v>153</v>
@@ -16809,10 +16830,10 @@
         <v>18</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="D54" t="s">
         <v>153</v>
@@ -16865,10 +16886,10 @@
         <v>20</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="D55" t="s">
         <v>153</v>
@@ -16921,10 +16942,10 @@
         <v>84</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="D56" t="s">
         <v>153</v>
@@ -16945,7 +16966,7 @@
         <v>236</v>
       </c>
       <c r="J56" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="K56" t="s">
         <v>85</v>
@@ -16977,10 +16998,10 @@
         <v>86</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="D57" t="s">
         <v>153</v>
@@ -17001,7 +17022,7 @@
         <v>236</v>
       </c>
       <c r="J57" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="K57" t="s">
         <v>81</v>
@@ -17033,10 +17054,10 @@
         <v>87</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="D58" t="s">
         <v>153</v>
@@ -17057,7 +17078,7 @@
         <v>236</v>
       </c>
       <c r="J58" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="K58" t="s">
         <v>80</v>
@@ -17089,10 +17110,10 @@
         <v>297</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="D59" t="s">
         <v>153</v>
@@ -17145,10 +17166,10 @@
         <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="D60" t="s">
         <v>153</v>
@@ -17175,7 +17196,7 @@
         <v>50</v>
       </c>
       <c r="L60" t="s">
-        <v>239</v>
+        <v>341</v>
       </c>
       <c r="M60" t="s">
         <v>2</v>
@@ -17201,10 +17222,10 @@
         <v>299</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="D61" t="s">
         <v>153</v>
@@ -17225,7 +17246,7 @@
         <v>238</v>
       </c>
       <c r="J61" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="K61" t="s">
         <v>50</v>
@@ -17257,10 +17278,10 @@
         <v>300</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="D62" t="s">
         <v>153</v>
@@ -17281,13 +17302,13 @@
         <v>238</v>
       </c>
       <c r="J62" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="K62" t="s">
         <v>50</v>
       </c>
       <c r="L62" t="s">
-        <v>239</v>
+        <v>341</v>
       </c>
       <c r="M62" t="s">
         <v>14</v>
@@ -17313,10 +17334,10 @@
         <v>15</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="D63" t="s">
         <v>153</v>
@@ -17343,7 +17364,7 @@
         <v>50</v>
       </c>
       <c r="L63" t="s">
-        <v>239</v>
+        <v>341</v>
       </c>
       <c r="M63" t="s">
         <v>2</v>
@@ -17369,10 +17390,10 @@
         <v>167</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="D64" t="s">
         <v>153</v>
@@ -17399,7 +17420,7 @@
         <v>50</v>
       </c>
       <c r="L64" t="s">
-        <v>239</v>
+        <v>341</v>
       </c>
       <c r="M64" t="s">
         <v>2</v>
@@ -17425,10 +17446,10 @@
         <v>16</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="D65" t="s">
         <v>153</v>
@@ -17455,7 +17476,7 @@
         <v>50</v>
       </c>
       <c r="L65" t="s">
-        <v>239</v>
+        <v>341</v>
       </c>
       <c r="M65" t="s">
         <v>2</v>
@@ -17481,10 +17502,10 @@
         <v>18</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="D66" t="s">
         <v>153</v>
@@ -17511,7 +17532,7 @@
         <v>50</v>
       </c>
       <c r="L66" t="s">
-        <v>239</v>
+        <v>341</v>
       </c>
       <c r="M66" t="s">
         <v>2</v>
@@ -17537,10 +17558,10 @@
         <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="D67" t="s">
         <v>153</v>
@@ -17567,7 +17588,7 @@
         <v>50</v>
       </c>
       <c r="L67" t="s">
-        <v>239</v>
+        <v>341</v>
       </c>
       <c r="M67" t="s">
         <v>2</v>
@@ -17593,10 +17614,10 @@
         <v>301</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="D68" t="s">
         <v>153</v>
@@ -17617,7 +17638,7 @@
         <v>238</v>
       </c>
       <c r="J68" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="K68" t="s">
         <v>50</v>
@@ -17649,10 +17670,10 @@
         <v>302</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="D69" t="s">
         <v>153</v>
@@ -17673,7 +17694,7 @@
         <v>238</v>
       </c>
       <c r="J69" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="K69" t="s">
         <v>50</v>
@@ -20380,13 +20401,13 @@
         <v>152</v>
       </c>
       <c r="B3" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -22883,13 +22904,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D17996DE-3987-8E42-A4AD-09F4F3C67AD2}">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:P100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -22939,7 +22960,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -22989,7 +23010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -22997,7 +23018,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
@@ -23039,12 +23060,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>343</v>
       </c>
       <c r="C4" t="s">
         <v>306</v>
@@ -23089,15 +23110,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>264</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>343</v>
       </c>
       <c r="C5" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -23118,10 +23139,10 @@
         <v>50</v>
       </c>
       <c r="J5" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="K5" t="s">
-        <v>188</v>
+        <v>50</v>
       </c>
       <c r="L5" t="s">
         <v>53</v>
@@ -23133,13 +23154,13 @@
         <v>14</v>
       </c>
       <c r="O5" t="s">
-        <v>8</v>
+        <v>343</v>
       </c>
       <c r="P5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -23147,7 +23168,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
@@ -23189,7 +23210,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>167</v>
       </c>
@@ -23197,7 +23218,7 @@
         <v>166</v>
       </c>
       <c r="C7" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="D7" t="s">
         <v>2</v>
@@ -23239,7 +23260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -23247,13 +23268,13 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>2</v>
+        <v>187</v>
       </c>
       <c r="F8" t="s">
         <v>50</v>
@@ -23289,7 +23310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -23297,13 +23318,13 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="D9" t="s">
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>2</v>
+        <v>187</v>
       </c>
       <c r="F9" t="s">
         <v>50</v>
@@ -23339,7 +23360,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -23347,13 +23368,13 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="D10" t="s">
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>2</v>
+        <v>187</v>
       </c>
       <c r="F10" t="s">
         <v>50</v>
@@ -23389,12 +23410,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>343</v>
       </c>
       <c r="C11" t="s">
         <v>306</v>
@@ -23439,15 +23460,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>265</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>343</v>
       </c>
       <c r="C12" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -23468,36 +23489,36 @@
         <v>50</v>
       </c>
       <c r="J12" t="s">
-        <v>171</v>
+        <v>50</v>
       </c>
       <c r="K12" t="s">
-        <v>172</v>
+        <v>50</v>
       </c>
       <c r="L12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N12" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="O12" t="s">
-        <v>50</v>
+        <v>328</v>
       </c>
       <c r="P12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
         <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>343</v>
       </c>
       <c r="C13" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -23518,36 +23539,36 @@
         <v>50</v>
       </c>
       <c r="J13" t="s">
-        <v>171</v>
+        <v>50</v>
       </c>
       <c r="K13" t="s">
-        <v>172</v>
+        <v>50</v>
       </c>
       <c r="L13" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M13" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N13" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="O13" t="s">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="P13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
         <v>267</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>343</v>
       </c>
       <c r="C14" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
@@ -23568,36 +23589,36 @@
         <v>50</v>
       </c>
       <c r="J14" t="s">
-        <v>171</v>
+        <v>50</v>
       </c>
       <c r="K14" t="s">
-        <v>172</v>
+        <v>50</v>
       </c>
       <c r="L14" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M14" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N14" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="O14" t="s">
-        <v>50</v>
+        <v>328</v>
       </c>
       <c r="P14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
         <v>268</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>343</v>
       </c>
       <c r="C15" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
@@ -23615,13 +23636,13 @@
         <v>62</v>
       </c>
       <c r="I15" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="J15" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="K15" t="s">
-        <v>188</v>
+        <v>50</v>
       </c>
       <c r="L15" t="s">
         <v>53</v>
@@ -23633,21 +23654,21 @@
         <v>14</v>
       </c>
       <c r="O15" t="s">
-        <v>8</v>
+        <v>343</v>
       </c>
       <c r="P15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
         <v>269</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>343</v>
       </c>
       <c r="C16" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
@@ -23668,36 +23689,36 @@
         <v>50</v>
       </c>
       <c r="J16" t="s">
-        <v>171</v>
+        <v>50</v>
       </c>
       <c r="K16" t="s">
-        <v>172</v>
+        <v>50</v>
       </c>
       <c r="L16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N16" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="O16" t="s">
-        <v>50</v>
+        <v>344</v>
       </c>
       <c r="P16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
         <v>271</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>343</v>
       </c>
       <c r="C17" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="D17" t="s">
         <v>14</v>
@@ -23718,36 +23739,36 @@
         <v>50</v>
       </c>
       <c r="J17" t="s">
-        <v>171</v>
+        <v>50</v>
       </c>
       <c r="K17" t="s">
-        <v>172</v>
+        <v>50</v>
       </c>
       <c r="L17" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M17" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N17" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="O17" t="s">
-        <v>50</v>
+        <v>344</v>
       </c>
       <c r="P17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="s">
         <v>273</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>343</v>
       </c>
       <c r="C18" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
@@ -23768,36 +23789,36 @@
         <v>50</v>
       </c>
       <c r="J18" t="s">
-        <v>171</v>
+        <v>50</v>
       </c>
       <c r="K18" t="s">
-        <v>172</v>
+        <v>50</v>
       </c>
       <c r="L18" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M18" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N18" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="O18" t="s">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="P18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="s">
         <v>274</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>343</v>
       </c>
       <c r="C19" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="D19" t="s">
         <v>14</v>
@@ -23818,36 +23839,36 @@
         <v>50</v>
       </c>
       <c r="J19" t="s">
-        <v>171</v>
+        <v>50</v>
       </c>
       <c r="K19" t="s">
-        <v>172</v>
+        <v>50</v>
       </c>
       <c r="L19" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M19" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N19" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="O19" t="s">
-        <v>50</v>
+        <v>328</v>
       </c>
       <c r="P19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" t="s">
         <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>343</v>
       </c>
       <c r="C20" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
@@ -23868,36 +23889,36 @@
         <v>50</v>
       </c>
       <c r="J20" t="s">
-        <v>171</v>
+        <v>50</v>
       </c>
       <c r="K20" t="s">
-        <v>172</v>
+        <v>50</v>
       </c>
       <c r="L20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N20" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="O20" t="s">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="P20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" t="s">
         <v>276</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>343</v>
       </c>
       <c r="C21" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="D21" t="s">
         <v>14</v>
@@ -23933,21 +23954,21 @@
         <v>14</v>
       </c>
       <c r="O21" t="s">
-        <v>8</v>
+        <v>343</v>
       </c>
       <c r="P21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" t="s">
         <v>76</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>343</v>
       </c>
       <c r="C22" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="D22" t="s">
         <v>14</v>
@@ -23989,15 +24010,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>278</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>343</v>
       </c>
       <c r="C23" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="D23" t="s">
         <v>14</v>
@@ -24030,24 +24051,24 @@
         <v>29</v>
       </c>
       <c r="N23" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O23" t="s">
-        <v>2</v>
+        <v>160</v>
       </c>
       <c r="P23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>279</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>343</v>
       </c>
       <c r="C24" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="D24" t="s">
         <v>14</v>
@@ -24083,21 +24104,21 @@
         <v>2</v>
       </c>
       <c r="O24" t="s">
-        <v>2</v>
+        <v>345</v>
       </c>
       <c r="P24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>280</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>343</v>
       </c>
       <c r="C25" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="D25" t="s">
         <v>14</v>
@@ -24133,21 +24154,21 @@
         <v>2</v>
       </c>
       <c r="O25" t="s">
-        <v>2</v>
+        <v>345</v>
       </c>
       <c r="P25" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>281</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>343</v>
       </c>
       <c r="C26" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="D26" t="s">
         <v>14</v>
@@ -24159,19 +24180,19 @@
         <v>60</v>
       </c>
       <c r="G26" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="H26" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="I26" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="J26" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="K26" t="s">
-        <v>188</v>
+        <v>50</v>
       </c>
       <c r="L26" t="s">
         <v>53</v>
@@ -24183,21 +24204,21 @@
         <v>14</v>
       </c>
       <c r="O26" t="s">
-        <v>8</v>
+        <v>343</v>
       </c>
       <c r="P26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" t="s">
         <v>282</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>343</v>
       </c>
       <c r="C27" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="D27" t="s">
         <v>14</v>
@@ -24209,19 +24230,19 @@
         <v>60</v>
       </c>
       <c r="G27" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="H27" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="I27" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="J27" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="K27" t="s">
-        <v>188</v>
+        <v>50</v>
       </c>
       <c r="L27" t="s">
         <v>23</v>
@@ -24239,15 +24260,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" t="s">
         <v>283</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>343</v>
       </c>
       <c r="C28" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="D28" t="s">
         <v>14</v>
@@ -24259,19 +24280,19 @@
         <v>60</v>
       </c>
       <c r="G28" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="H28" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="I28" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="J28" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="K28" t="s">
-        <v>188</v>
+        <v>50</v>
       </c>
       <c r="L28" t="s">
         <v>59</v>
@@ -24289,15 +24310,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="A29" t="s">
         <v>308</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>343</v>
       </c>
       <c r="C29" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="D29" t="s">
         <v>14</v>
@@ -24309,19 +24330,19 @@
         <v>60</v>
       </c>
       <c r="G29" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="I29" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="J29" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="K29" t="s">
-        <v>188</v>
+        <v>50</v>
       </c>
       <c r="L29" t="s">
         <v>27</v>
@@ -24339,15 +24360,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="A30" t="s">
         <v>285</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>343</v>
       </c>
       <c r="C30" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="D30" t="s">
         <v>14</v>
@@ -24359,19 +24380,19 @@
         <v>60</v>
       </c>
       <c r="G30" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="I30" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="J30" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="K30" t="s">
-        <v>188</v>
+        <v>50</v>
       </c>
       <c r="L30" t="s">
         <v>29</v>
@@ -24389,15 +24410,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="A31" t="s">
         <v>286</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>343</v>
       </c>
       <c r="C31" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="D31" t="s">
         <v>14</v>
@@ -24409,19 +24430,19 @@
         <v>60</v>
       </c>
       <c r="G31" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="I31" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="J31" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="K31" t="s">
-        <v>188</v>
+        <v>50</v>
       </c>
       <c r="L31" t="s">
         <v>31</v>
@@ -24439,15 +24460,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="A32" t="s">
         <v>287</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>343</v>
       </c>
       <c r="C32" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="D32" t="s">
         <v>14</v>
@@ -24459,19 +24480,19 @@
         <v>60</v>
       </c>
       <c r="G32" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="H32" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="I32" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="J32" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="K32" t="s">
-        <v>188</v>
+        <v>50</v>
       </c>
       <c r="L32" t="s">
         <v>33</v>
@@ -24489,15 +24510,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="A33" t="s">
         <v>288</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>343</v>
       </c>
       <c r="C33" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="D33" t="s">
         <v>14</v>
@@ -24509,19 +24530,19 @@
         <v>60</v>
       </c>
       <c r="G33" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="H33" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="I33" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="J33" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="K33" t="s">
-        <v>188</v>
+        <v>50</v>
       </c>
       <c r="L33" t="s">
         <v>53</v>
@@ -24539,15 +24560,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="A34" t="s">
         <v>289</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>343</v>
       </c>
       <c r="C34" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="D34" t="s">
         <v>14</v>
@@ -24559,19 +24580,19 @@
         <v>60</v>
       </c>
       <c r="G34" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="H34" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="I34" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="J34" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="K34" t="s">
-        <v>188</v>
+        <v>50</v>
       </c>
       <c r="L34" t="s">
         <v>53</v>
@@ -24589,15 +24610,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="A35" t="s">
         <v>290</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>343</v>
       </c>
       <c r="C35" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="D35" t="s">
         <v>14</v>
@@ -24609,19 +24630,19 @@
         <v>60</v>
       </c>
       <c r="G35" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="H35" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="I35" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="J35" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="K35" t="s">
-        <v>188</v>
+        <v>50</v>
       </c>
       <c r="L35" t="s">
         <v>53</v>
@@ -24639,15 +24660,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="A36" t="s">
         <v>291</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>343</v>
       </c>
       <c r="C36" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="D36" t="s">
         <v>14</v>
@@ -24659,19 +24680,19 @@
         <v>60</v>
       </c>
       <c r="G36" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="H36" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="I36" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="J36" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="K36" t="s">
-        <v>188</v>
+        <v>50</v>
       </c>
       <c r="L36" t="s">
         <v>53</v>
@@ -24689,15 +24710,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="A37" t="s">
         <v>292</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>343</v>
       </c>
       <c r="C37" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="D37" t="s">
         <v>14</v>
@@ -24709,19 +24730,19 @@
         <v>60</v>
       </c>
       <c r="G37" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="H37" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="I37" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="J37" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="K37" t="s">
-        <v>188</v>
+        <v>50</v>
       </c>
       <c r="L37" t="s">
         <v>53</v>
@@ -24739,15 +24760,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="A38" t="s">
         <v>293</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>343</v>
       </c>
       <c r="C38" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="D38" t="s">
         <v>14</v>
@@ -24759,19 +24780,19 @@
         <v>60</v>
       </c>
       <c r="G38" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="H38" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="I38" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="J38" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="K38" t="s">
-        <v>188</v>
+        <v>50</v>
       </c>
       <c r="L38" t="s">
         <v>53</v>
@@ -24788,6 +24809,1122 @@
       <c r="P38" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="39">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+    </row>
+    <row r="40">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+    </row>
+    <row r="41">
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+    </row>
+    <row r="42">
+      <c r="A42"/>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+    </row>
+    <row r="43">
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+    </row>
+    <row r="45">
+      <c r="A45"/>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+    </row>
+    <row r="46">
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+    </row>
+    <row r="47">
+      <c r="A47"/>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+    </row>
+    <row r="48">
+      <c r="A48"/>
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+    </row>
+    <row r="49">
+      <c r="A49"/>
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+    </row>
+    <row r="50">
+      <c r="A50"/>
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+    </row>
+    <row r="51">
+      <c r="A51"/>
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+    </row>
+    <row r="52">
+      <c r="A52"/>
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+    </row>
+    <row r="53">
+      <c r="A53"/>
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53"/>
+      <c r="O53"/>
+      <c r="P53"/>
+    </row>
+    <row r="54">
+      <c r="A54"/>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+    </row>
+    <row r="55">
+      <c r="A55"/>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+    </row>
+    <row r="56">
+      <c r="A56"/>
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+    </row>
+    <row r="57">
+      <c r="A57"/>
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+    </row>
+    <row r="58">
+      <c r="A58"/>
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+    </row>
+    <row r="59">
+      <c r="A59"/>
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
+    </row>
+    <row r="60">
+      <c r="A60"/>
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+    </row>
+    <row r="61">
+      <c r="A61"/>
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
+    </row>
+    <row r="62">
+      <c r="A62"/>
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62"/>
+    </row>
+    <row r="63">
+      <c r="A63"/>
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63"/>
+    </row>
+    <row r="64">
+      <c r="A64"/>
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="P64"/>
+    </row>
+    <row r="65">
+      <c r="A65"/>
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+      <c r="O65"/>
+      <c r="P65"/>
+    </row>
+    <row r="66">
+      <c r="A66"/>
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="O66"/>
+      <c r="P66"/>
+    </row>
+    <row r="67">
+      <c r="A67"/>
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67"/>
+      <c r="O67"/>
+      <c r="P67"/>
+    </row>
+    <row r="68">
+      <c r="A68"/>
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68"/>
+      <c r="O68"/>
+      <c r="P68"/>
+    </row>
+    <row r="69">
+      <c r="A69"/>
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69"/>
+    </row>
+    <row r="70">
+      <c r="A70"/>
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70"/>
+      <c r="O70"/>
+      <c r="P70"/>
+    </row>
+    <row r="71">
+      <c r="A71"/>
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71"/>
+      <c r="P71"/>
+    </row>
+    <row r="72">
+      <c r="A72"/>
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
+      <c r="O72"/>
+      <c r="P72"/>
+    </row>
+    <row r="73">
+      <c r="A73"/>
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73"/>
+      <c r="O73"/>
+      <c r="P73"/>
+    </row>
+    <row r="74">
+      <c r="A74"/>
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="O74"/>
+      <c r="P74"/>
+    </row>
+    <row r="75">
+      <c r="A75"/>
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="O75"/>
+      <c r="P75"/>
+    </row>
+    <row r="76">
+      <c r="A76"/>
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="L76"/>
+      <c r="M76"/>
+      <c r="N76"/>
+      <c r="O76"/>
+      <c r="P76"/>
+    </row>
+    <row r="77">
+      <c r="A77"/>
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77"/>
+      <c r="J77"/>
+      <c r="K77"/>
+      <c r="L77"/>
+      <c r="M77"/>
+      <c r="N77"/>
+      <c r="O77"/>
+      <c r="P77"/>
+    </row>
+    <row r="78">
+      <c r="A78"/>
+      <c r="B78"/>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78"/>
+      <c r="J78"/>
+      <c r="K78"/>
+      <c r="L78"/>
+      <c r="M78"/>
+      <c r="N78"/>
+      <c r="O78"/>
+      <c r="P78"/>
+    </row>
+    <row r="79">
+      <c r="A79"/>
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79"/>
+      <c r="J79"/>
+      <c r="K79"/>
+      <c r="L79"/>
+      <c r="M79"/>
+      <c r="N79"/>
+      <c r="O79"/>
+      <c r="P79"/>
+    </row>
+    <row r="80">
+      <c r="A80"/>
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="J80"/>
+      <c r="K80"/>
+      <c r="L80"/>
+      <c r="M80"/>
+      <c r="N80"/>
+      <c r="O80"/>
+      <c r="P80"/>
+    </row>
+    <row r="81">
+      <c r="A81"/>
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81"/>
+      <c r="J81"/>
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="M81"/>
+      <c r="N81"/>
+      <c r="O81"/>
+      <c r="P81"/>
+    </row>
+    <row r="82">
+      <c r="A82"/>
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
+      <c r="J82"/>
+      <c r="K82"/>
+      <c r="L82"/>
+      <c r="M82"/>
+      <c r="N82"/>
+      <c r="O82"/>
+      <c r="P82"/>
+    </row>
+    <row r="83">
+      <c r="A83"/>
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83"/>
+      <c r="J83"/>
+      <c r="K83"/>
+      <c r="L83"/>
+      <c r="M83"/>
+      <c r="N83"/>
+      <c r="O83"/>
+      <c r="P83"/>
+    </row>
+    <row r="84">
+      <c r="A84"/>
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
+      <c r="J84"/>
+      <c r="K84"/>
+      <c r="L84"/>
+      <c r="M84"/>
+      <c r="N84"/>
+      <c r="O84"/>
+      <c r="P84"/>
+    </row>
+    <row r="85">
+      <c r="A85"/>
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85"/>
+      <c r="J85"/>
+      <c r="K85"/>
+      <c r="L85"/>
+      <c r="M85"/>
+      <c r="N85"/>
+      <c r="O85"/>
+      <c r="P85"/>
+    </row>
+    <row r="86">
+      <c r="A86"/>
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="J86"/>
+      <c r="K86"/>
+      <c r="L86"/>
+      <c r="M86"/>
+      <c r="N86"/>
+      <c r="O86"/>
+      <c r="P86"/>
+    </row>
+    <row r="87">
+      <c r="A87"/>
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="I87"/>
+      <c r="J87"/>
+      <c r="K87"/>
+      <c r="L87"/>
+      <c r="M87"/>
+      <c r="N87"/>
+      <c r="O87"/>
+      <c r="P87"/>
+    </row>
+    <row r="88">
+      <c r="A88"/>
+      <c r="B88"/>
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
+      <c r="H88"/>
+      <c r="I88"/>
+      <c r="J88"/>
+      <c r="K88"/>
+      <c r="L88"/>
+      <c r="M88"/>
+      <c r="N88"/>
+      <c r="O88"/>
+      <c r="P88"/>
+    </row>
+    <row r="89">
+      <c r="A89"/>
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="H89"/>
+      <c r="I89"/>
+      <c r="J89"/>
+      <c r="K89"/>
+      <c r="L89"/>
+      <c r="M89"/>
+      <c r="N89"/>
+      <c r="O89"/>
+      <c r="P89"/>
+    </row>
+    <row r="90">
+      <c r="A90"/>
+      <c r="B90"/>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+      <c r="H90"/>
+      <c r="I90"/>
+      <c r="J90"/>
+      <c r="K90"/>
+      <c r="L90"/>
+      <c r="M90"/>
+      <c r="N90"/>
+      <c r="O90"/>
+      <c r="P90"/>
+    </row>
+    <row r="91">
+      <c r="A91"/>
+      <c r="B91"/>
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
+      <c r="H91"/>
+      <c r="I91"/>
+      <c r="J91"/>
+      <c r="K91"/>
+      <c r="L91"/>
+      <c r="M91"/>
+      <c r="N91"/>
+      <c r="O91"/>
+      <c r="P91"/>
+    </row>
+    <row r="92">
+      <c r="A92"/>
+      <c r="B92"/>
+      <c r="C92"/>
+      <c r="D92"/>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92"/>
+      <c r="H92"/>
+      <c r="I92"/>
+      <c r="J92"/>
+      <c r="K92"/>
+      <c r="L92"/>
+      <c r="M92"/>
+      <c r="N92"/>
+      <c r="O92"/>
+      <c r="P92"/>
+    </row>
+    <row r="93">
+      <c r="A93"/>
+      <c r="B93"/>
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93"/>
+      <c r="H93"/>
+      <c r="I93"/>
+      <c r="J93"/>
+      <c r="K93"/>
+      <c r="L93"/>
+      <c r="M93"/>
+      <c r="N93"/>
+      <c r="O93"/>
+      <c r="P93"/>
+    </row>
+    <row r="94">
+      <c r="A94"/>
+      <c r="B94"/>
+      <c r="C94"/>
+      <c r="D94"/>
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94"/>
+      <c r="H94"/>
+      <c r="I94"/>
+      <c r="J94"/>
+      <c r="K94"/>
+      <c r="L94"/>
+      <c r="M94"/>
+      <c r="N94"/>
+      <c r="O94"/>
+      <c r="P94"/>
+    </row>
+    <row r="95">
+      <c r="A95"/>
+      <c r="B95"/>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="I95"/>
+      <c r="J95"/>
+      <c r="K95"/>
+      <c r="L95"/>
+      <c r="M95"/>
+      <c r="N95"/>
+      <c r="O95"/>
+      <c r="P95"/>
+    </row>
+    <row r="96">
+      <c r="A96"/>
+      <c r="B96"/>
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96"/>
+      <c r="H96"/>
+      <c r="I96"/>
+      <c r="J96"/>
+      <c r="K96"/>
+      <c r="L96"/>
+      <c r="M96"/>
+      <c r="N96"/>
+      <c r="O96"/>
+      <c r="P96"/>
+    </row>
+    <row r="97">
+      <c r="A97"/>
+      <c r="B97"/>
+      <c r="C97"/>
+      <c r="D97"/>
+      <c r="E97"/>
+      <c r="F97"/>
+      <c r="G97"/>
+      <c r="H97"/>
+      <c r="I97"/>
+      <c r="J97"/>
+      <c r="K97"/>
+      <c r="L97"/>
+      <c r="M97"/>
+      <c r="N97"/>
+      <c r="O97"/>
+      <c r="P97"/>
+    </row>
+    <row r="98">
+      <c r="A98"/>
+      <c r="B98"/>
+      <c r="C98"/>
+      <c r="D98"/>
+      <c r="E98"/>
+      <c r="F98"/>
+      <c r="G98"/>
+      <c r="H98"/>
+      <c r="I98"/>
+      <c r="J98"/>
+      <c r="K98"/>
+      <c r="L98"/>
+      <c r="M98"/>
+      <c r="N98"/>
+      <c r="O98"/>
+      <c r="P98"/>
+    </row>
+    <row r="99">
+      <c r="A99"/>
+      <c r="B99"/>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99"/>
+      <c r="H99"/>
+      <c r="I99"/>
+      <c r="J99"/>
+      <c r="K99"/>
+      <c r="L99"/>
+      <c r="M99"/>
+      <c r="N99"/>
+      <c r="O99"/>
+      <c r="P99"/>
+    </row>
+    <row r="100">
+      <c r="A100"/>
+      <c r="B100"/>
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100"/>
+      <c r="H100"/>
+      <c r="I100"/>
+      <c r="J100"/>
+      <c r="K100"/>
+      <c r="L100"/>
+      <c r="M100"/>
+      <c r="N100"/>
+      <c r="O100"/>
+      <c r="P100"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test-output/QuotaAppReport.xlsx
+++ b/test-output/QuotaAppReport.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22077" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22233" uniqueCount="348">
   <si>
     <t>negative case - invalid phone number and password</t>
   </si>
@@ -1080,6 +1080,12 @@
   </si>
   <si>
     <t>Your Password doesnt match</t>
+  </si>
+  <si>
+    <t>+6281252930361</t>
+  </si>
+  <si>
+    <t>+6281252930353</t>
   </si>
 </sst>
 </file>
@@ -1513,7 +1519,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -1533,7 +1539,7 @@
         <v>149</v>
       </c>
       <c r="B5" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -1542,7 +1548,7 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="F5" t="s">
         <v>4</v>
@@ -1653,7 +1659,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
@@ -1673,7 +1679,7 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
@@ -1693,7 +1699,7 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -1713,7 +1719,7 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
@@ -1733,7 +1739,7 @@
         <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="C15" t="s">
         <v>31</v>
@@ -1753,7 +1759,7 @@
         <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="C16" t="s">
         <v>33</v>
@@ -20401,13 +20407,13 @@
         <v>152</v>
       </c>
       <c r="B3" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>

--- a/test-output/QuotaAppReport.xlsx
+++ b/test-output/QuotaAppReport.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22233" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22644" uniqueCount="348">
   <si>
     <t>negative case - invalid phone number and password</t>
   </si>

--- a/test-output/QuotaAppReport.xlsx
+++ b/test-output/QuotaAppReport.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22644" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25902" uniqueCount="352">
   <si>
     <t>negative case - invalid phone number and password</t>
   </si>
@@ -1086,6 +1086,18 @@
   </si>
   <si>
     <t>+6281252930353</t>
+  </si>
+  <si>
+    <t>+6281252930365</t>
+  </si>
+  <si>
+    <t>8000081252930365</t>
+  </si>
+  <si>
+    <t>+6281252930369</t>
+  </si>
+  <si>
+    <t>+6281252930367</t>
   </si>
 </sst>
 </file>
@@ -2509,7 +2521,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>351</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -14375,7 +14387,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D10" t="s">
         <v>203</v>
@@ -14431,7 +14443,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D11" t="s">
         <v>203</v>
@@ -14487,7 +14499,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D12" t="s">
         <v>203</v>
@@ -14543,7 +14555,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D13" t="s">
         <v>203</v>
@@ -14599,7 +14611,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D14" t="s">
         <v>153</v>
@@ -14655,7 +14667,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D15" t="s">
         <v>153</v>
@@ -14711,7 +14723,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D16" t="s">
         <v>153</v>
@@ -14767,7 +14779,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D17" t="s">
         <v>153</v>
@@ -14820,7 +14832,7 @@
         <v>219</v>
       </c>
       <c r="B18" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
@@ -14876,7 +14888,7 @@
         <v>220</v>
       </c>
       <c r="B19" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
@@ -14932,7 +14944,7 @@
         <v>221</v>
       </c>
       <c r="B20" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
@@ -14988,7 +15000,7 @@
         <v>222</v>
       </c>
       <c r="B21" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
@@ -15044,7 +15056,7 @@
         <v>223</v>
       </c>
       <c r="B22" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
@@ -15100,7 +15112,7 @@
         <v>224</v>
       </c>
       <c r="B23" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
@@ -15156,7 +15168,7 @@
         <v>225</v>
       </c>
       <c r="B24" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
@@ -15212,7 +15224,7 @@
         <v>226</v>
       </c>
       <c r="B25" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
@@ -15268,10 +15280,10 @@
         <v>227</v>
       </c>
       <c r="B26" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C26" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D26" t="s">
         <v>203</v>
@@ -15324,10 +15336,10 @@
         <v>228</v>
       </c>
       <c r="B27" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C27" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D27" t="s">
         <v>203</v>
@@ -15380,10 +15392,10 @@
         <v>229</v>
       </c>
       <c r="B28" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C28" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D28" t="s">
         <v>203</v>
@@ -15436,10 +15448,10 @@
         <v>230</v>
       </c>
       <c r="B29" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C29" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D29" t="s">
         <v>203</v>
@@ -15492,10 +15504,10 @@
         <v>231</v>
       </c>
       <c r="B30" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C30" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D30" t="s">
         <v>153</v>
@@ -15548,10 +15560,10 @@
         <v>232</v>
       </c>
       <c r="B31" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C31" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D31" t="s">
         <v>153</v>
@@ -15604,10 +15616,10 @@
         <v>233</v>
       </c>
       <c r="B32" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C32" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D32" t="s">
         <v>153</v>
@@ -15660,10 +15672,10 @@
         <v>234</v>
       </c>
       <c r="B33" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C33" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D33" t="s">
         <v>153</v>
@@ -15684,7 +15696,7 @@
         <v>236</v>
       </c>
       <c r="J33" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="K33" t="s">
         <v>83</v>
@@ -15719,7 +15731,7 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D34" t="s">
         <v>153</v>
@@ -15775,7 +15787,7 @@
         <v>166</v>
       </c>
       <c r="C35" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D35" t="s">
         <v>153</v>
@@ -15831,7 +15843,7 @@
         <v>17</v>
       </c>
       <c r="C36" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D36" t="s">
         <v>153</v>
@@ -15887,7 +15899,7 @@
         <v>19</v>
       </c>
       <c r="C37" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D37" t="s">
         <v>153</v>
@@ -15943,7 +15955,7 @@
         <v>21</v>
       </c>
       <c r="C38" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D38" t="s">
         <v>153</v>
@@ -15996,7 +16008,7 @@
         <v>242</v>
       </c>
       <c r="B39" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
@@ -16052,7 +16064,7 @@
         <v>243</v>
       </c>
       <c r="B40" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C40" t="s">
         <v>166</v>
@@ -16108,7 +16120,7 @@
         <v>244</v>
       </c>
       <c r="B41" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C41" t="s">
         <v>17</v>
@@ -16164,7 +16176,7 @@
         <v>245</v>
       </c>
       <c r="B42" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C42" t="s">
         <v>19</v>
@@ -16220,7 +16232,7 @@
         <v>246</v>
       </c>
       <c r="B43" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C43" t="s">
         <v>21</v>
@@ -16276,10 +16288,10 @@
         <v>247</v>
       </c>
       <c r="B44" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C44" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D44" t="s">
         <v>203</v>
@@ -16332,10 +16344,10 @@
         <v>248</v>
       </c>
       <c r="B45" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C45" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D45" t="s">
         <v>153</v>
@@ -16388,10 +16400,10 @@
         <v>190</v>
       </c>
       <c r="B46" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C46" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D46" t="s">
         <v>153</v>
@@ -16444,10 +16456,10 @@
         <v>294</v>
       </c>
       <c r="B47" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C47" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D47" t="s">
         <v>153</v>
@@ -16492,7 +16504,7 @@
         <v>50</v>
       </c>
       <c r="R47" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48">
@@ -16500,10 +16512,10 @@
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C48" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D48" t="s">
         <v>153</v>
@@ -16548,7 +16560,7 @@
         <v>50</v>
       </c>
       <c r="R48" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
@@ -16556,10 +16568,10 @@
         <v>295</v>
       </c>
       <c r="B49" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C49" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D49" t="s">
         <v>153</v>
@@ -16580,7 +16592,7 @@
         <v>236</v>
       </c>
       <c r="J49" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="K49" t="s">
         <v>85</v>
@@ -16612,10 +16624,10 @@
         <v>296</v>
       </c>
       <c r="B50" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C50" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D50" t="s">
         <v>153</v>
@@ -16636,7 +16648,7 @@
         <v>236</v>
       </c>
       <c r="J50" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="K50" t="s">
         <v>83</v>
@@ -16668,10 +16680,10 @@
         <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C51" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D51" t="s">
         <v>153</v>
@@ -16716,7 +16728,7 @@
         <v>50</v>
       </c>
       <c r="R51" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52">
@@ -16724,10 +16736,10 @@
         <v>167</v>
       </c>
       <c r="B52" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C52" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D52" t="s">
         <v>153</v>
@@ -16780,10 +16792,10 @@
         <v>16</v>
       </c>
       <c r="B53" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C53" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D53" t="s">
         <v>153</v>
@@ -16836,10 +16848,10 @@
         <v>18</v>
       </c>
       <c r="B54" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C54" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D54" t="s">
         <v>153</v>
@@ -16892,10 +16904,10 @@
         <v>20</v>
       </c>
       <c r="B55" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C55" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D55" t="s">
         <v>153</v>
@@ -16948,10 +16960,10 @@
         <v>84</v>
       </c>
       <c r="B56" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C56" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D56" t="s">
         <v>153</v>
@@ -16972,7 +16984,7 @@
         <v>236</v>
       </c>
       <c r="J56" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="K56" t="s">
         <v>85</v>
@@ -17004,10 +17016,10 @@
         <v>86</v>
       </c>
       <c r="B57" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C57" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D57" t="s">
         <v>153</v>
@@ -17028,7 +17040,7 @@
         <v>236</v>
       </c>
       <c r="J57" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="K57" t="s">
         <v>81</v>
@@ -17060,10 +17072,10 @@
         <v>87</v>
       </c>
       <c r="B58" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C58" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D58" t="s">
         <v>153</v>
@@ -17084,7 +17096,7 @@
         <v>236</v>
       </c>
       <c r="J58" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="K58" t="s">
         <v>80</v>
@@ -17116,10 +17128,10 @@
         <v>297</v>
       </c>
       <c r="B59" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C59" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D59" t="s">
         <v>153</v>
@@ -17164,7 +17176,7 @@
         <v>50</v>
       </c>
       <c r="R59" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60">
@@ -17172,10 +17184,10 @@
         <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C60" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D60" t="s">
         <v>153</v>
@@ -17202,7 +17214,7 @@
         <v>50</v>
       </c>
       <c r="L60" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="M60" t="s">
         <v>2</v>
@@ -17220,7 +17232,7 @@
         <v>50</v>
       </c>
       <c r="R60" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61">
@@ -17228,10 +17240,10 @@
         <v>299</v>
       </c>
       <c r="B61" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C61" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D61" t="s">
         <v>153</v>
@@ -17252,7 +17264,7 @@
         <v>238</v>
       </c>
       <c r="J61" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="K61" t="s">
         <v>50</v>
@@ -17284,10 +17296,10 @@
         <v>300</v>
       </c>
       <c r="B62" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C62" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D62" t="s">
         <v>153</v>
@@ -17308,13 +17320,13 @@
         <v>238</v>
       </c>
       <c r="J62" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="K62" t="s">
         <v>50</v>
       </c>
       <c r="L62" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="M62" t="s">
         <v>14</v>
@@ -17340,10 +17352,10 @@
         <v>15</v>
       </c>
       <c r="B63" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C63" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D63" t="s">
         <v>153</v>
@@ -17370,7 +17382,7 @@
         <v>50</v>
       </c>
       <c r="L63" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="M63" t="s">
         <v>2</v>
@@ -17388,7 +17400,7 @@
         <v>50</v>
       </c>
       <c r="R63" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64">
@@ -17396,10 +17408,10 @@
         <v>167</v>
       </c>
       <c r="B64" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C64" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D64" t="s">
         <v>153</v>
@@ -17426,7 +17438,7 @@
         <v>50</v>
       </c>
       <c r="L64" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="M64" t="s">
         <v>2</v>
@@ -17452,10 +17464,10 @@
         <v>16</v>
       </c>
       <c r="B65" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C65" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D65" t="s">
         <v>153</v>
@@ -17482,7 +17494,7 @@
         <v>50</v>
       </c>
       <c r="L65" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="M65" t="s">
         <v>2</v>
@@ -17508,10 +17520,10 @@
         <v>18</v>
       </c>
       <c r="B66" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C66" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D66" t="s">
         <v>153</v>
@@ -17538,7 +17550,7 @@
         <v>50</v>
       </c>
       <c r="L66" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="M66" t="s">
         <v>2</v>
@@ -17564,10 +17576,10 @@
         <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C67" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D67" t="s">
         <v>153</v>
@@ -17594,7 +17606,7 @@
         <v>50</v>
       </c>
       <c r="L67" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="M67" t="s">
         <v>2</v>
@@ -17620,10 +17632,10 @@
         <v>301</v>
       </c>
       <c r="B68" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C68" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D68" t="s">
         <v>153</v>
@@ -17644,7 +17656,7 @@
         <v>238</v>
       </c>
       <c r="J68" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="K68" t="s">
         <v>50</v>
@@ -17676,10 +17688,10 @@
         <v>302</v>
       </c>
       <c r="B69" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C69" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D69" t="s">
         <v>153</v>
@@ -17700,7 +17712,7 @@
         <v>238</v>
       </c>
       <c r="J69" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="K69" t="s">
         <v>50</v>
@@ -26020,7 +26032,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>350</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -26040,7 +26052,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>350</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -26049,7 +26061,7 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>350</v>
       </c>
       <c r="F5" t="s">
         <v>4</v>
@@ -26160,7 +26172,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>350</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
@@ -26180,7 +26192,7 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>350</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
@@ -26200,7 +26212,7 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>350</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -26220,7 +26232,7 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>350</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
@@ -26240,7 +26252,7 @@
         <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>350</v>
       </c>
       <c r="C15" t="s">
         <v>31</v>
@@ -26260,7 +26272,7 @@
         <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>350</v>
       </c>
       <c r="C16" t="s">
         <v>33</v>

--- a/test-output/QuotaAppReport.xlsx
+++ b/test-output/QuotaAppReport.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25902" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28486" uniqueCount="355">
   <si>
     <t>negative case - invalid phone number and password</t>
   </si>
@@ -1098,6 +1098,15 @@
   </si>
   <si>
     <t>+6281252930367</t>
+  </si>
+  <si>
+    <t>testchangepasswordbackend23@gmail.com</t>
+  </si>
+  <si>
+    <t>+6281252930366</t>
+  </si>
+  <si>
+    <t>+6281252930451</t>
   </si>
 </sst>
 </file>
@@ -16504,7 +16513,7 @@
         <v>50</v>
       </c>
       <c r="R47" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -16560,7 +16569,7 @@
         <v>50</v>
       </c>
       <c r="R48" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
@@ -16728,7 +16737,7 @@
         <v>50</v>
       </c>
       <c r="R51" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
@@ -17176,7 +17185,7 @@
         <v>50</v>
       </c>
       <c r="R59" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
@@ -17232,7 +17241,7 @@
         <v>50</v>
       </c>
       <c r="R60" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
@@ -17400,7 +17409,7 @@
         <v>50</v>
       </c>
       <c r="R63" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
@@ -20967,7 +20976,7 @@
         <v>250</v>
       </c>
       <c r="C4" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="D4" t="s">
         <v>257</v>
@@ -20999,7 +21008,7 @@
         <v>250</v>
       </c>
       <c r="C5" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="D5" t="s">
         <v>305</v>
@@ -21095,7 +21104,7 @@
         <v>252</v>
       </c>
       <c r="C8" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="D8" t="s">
         <v>257</v>
@@ -21127,7 +21136,7 @@
         <v>252</v>
       </c>
       <c r="C9" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="D9" t="s">
         <v>305</v>
@@ -21136,7 +21145,7 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="G9" t="s">
         <v>4</v>
@@ -21159,7 +21168,7 @@
         <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="D10" t="s">
         <v>305</v>
@@ -21191,7 +21200,7 @@
         <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="D11" t="s">
         <v>305</v>
@@ -21223,7 +21232,7 @@
         <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="D12" t="s">
         <v>305</v>
@@ -21255,7 +21264,7 @@
         <v>252</v>
       </c>
       <c r="C13" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="D13" t="s">
         <v>257</v>
@@ -23036,7 +23045,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
@@ -23083,7 +23092,7 @@
         <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="C4" t="s">
         <v>306</v>
@@ -23133,10 +23142,10 @@
         <v>264</v>
       </c>
       <c r="B5" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="C5" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -23172,7 +23181,7 @@
         <v>14</v>
       </c>
       <c r="O5" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="P5" t="s">
         <v>4</v>
@@ -23186,7 +23195,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
@@ -23236,7 +23245,7 @@
         <v>166</v>
       </c>
       <c r="C7" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="D7" t="s">
         <v>2</v>
@@ -23286,7 +23295,7 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
@@ -23336,7 +23345,7 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="D9" t="s">
         <v>2</v>
@@ -23386,7 +23395,7 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="D10" t="s">
         <v>2</v>
@@ -23433,7 +23442,7 @@
         <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="C11" t="s">
         <v>306</v>
@@ -23483,10 +23492,10 @@
         <v>265</v>
       </c>
       <c r="B12" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="C12" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -23533,10 +23542,10 @@
         <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="C13" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -23583,10 +23592,10 @@
         <v>267</v>
       </c>
       <c r="B14" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="C14" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
@@ -23633,10 +23642,10 @@
         <v>268</v>
       </c>
       <c r="B15" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="C15" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
@@ -23672,7 +23681,7 @@
         <v>14</v>
       </c>
       <c r="O15" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="P15" t="s">
         <v>4</v>
@@ -23683,10 +23692,10 @@
         <v>269</v>
       </c>
       <c r="B16" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="C16" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
@@ -23733,10 +23742,10 @@
         <v>271</v>
       </c>
       <c r="B17" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="C17" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="D17" t="s">
         <v>14</v>
@@ -23783,10 +23792,10 @@
         <v>273</v>
       </c>
       <c r="B18" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="C18" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
@@ -23833,10 +23842,10 @@
         <v>274</v>
       </c>
       <c r="B19" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="C19" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="D19" t="s">
         <v>14</v>
@@ -23883,10 +23892,10 @@
         <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="C20" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
@@ -23933,10 +23942,10 @@
         <v>276</v>
       </c>
       <c r="B21" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="C21" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="D21" t="s">
         <v>14</v>
@@ -23972,7 +23981,7 @@
         <v>14</v>
       </c>
       <c r="O21" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="P21" t="s">
         <v>4</v>
@@ -23983,10 +23992,10 @@
         <v>76</v>
       </c>
       <c r="B22" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="C22" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="D22" t="s">
         <v>14</v>
@@ -24033,10 +24042,10 @@
         <v>278</v>
       </c>
       <c r="B23" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="C23" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="D23" t="s">
         <v>14</v>
@@ -24083,10 +24092,10 @@
         <v>279</v>
       </c>
       <c r="B24" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="C24" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="D24" t="s">
         <v>14</v>
@@ -24133,10 +24142,10 @@
         <v>280</v>
       </c>
       <c r="B25" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="C25" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="D25" t="s">
         <v>14</v>
@@ -24183,10 +24192,10 @@
         <v>281</v>
       </c>
       <c r="B26" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="C26" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="D26" t="s">
         <v>14</v>
@@ -24222,7 +24231,7 @@
         <v>14</v>
       </c>
       <c r="O26" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="P26" t="s">
         <v>4</v>
@@ -24233,10 +24242,10 @@
         <v>282</v>
       </c>
       <c r="B27" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="C27" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="D27" t="s">
         <v>14</v>
@@ -24283,10 +24292,10 @@
         <v>283</v>
       </c>
       <c r="B28" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="C28" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="D28" t="s">
         <v>14</v>
@@ -24333,10 +24342,10 @@
         <v>308</v>
       </c>
       <c r="B29" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="C29" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="D29" t="s">
         <v>14</v>
@@ -24383,10 +24392,10 @@
         <v>285</v>
       </c>
       <c r="B30" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="C30" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="D30" t="s">
         <v>14</v>
@@ -24433,10 +24442,10 @@
         <v>286</v>
       </c>
       <c r="B31" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="C31" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="D31" t="s">
         <v>14</v>
@@ -24483,10 +24492,10 @@
         <v>287</v>
       </c>
       <c r="B32" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="C32" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="D32" t="s">
         <v>14</v>
@@ -24533,10 +24542,10 @@
         <v>288</v>
       </c>
       <c r="B33" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="C33" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="D33" t="s">
         <v>14</v>
@@ -24583,10 +24592,10 @@
         <v>289</v>
       </c>
       <c r="B34" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="C34" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="D34" t="s">
         <v>14</v>
@@ -24633,10 +24642,10 @@
         <v>290</v>
       </c>
       <c r="B35" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="C35" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="D35" t="s">
         <v>14</v>
@@ -24683,10 +24692,10 @@
         <v>291</v>
       </c>
       <c r="B36" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="C36" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="D36" t="s">
         <v>14</v>
@@ -24733,10 +24742,10 @@
         <v>292</v>
       </c>
       <c r="B37" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="C37" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="D37" t="s">
         <v>14</v>
@@ -24783,10 +24792,10 @@
         <v>293</v>
       </c>
       <c r="B38" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="C38" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="D38" t="s">
         <v>14</v>

--- a/test-output/QuotaAppReport.xlsx
+++ b/test-output/QuotaAppReport.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28486" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42957" uniqueCount="361">
   <si>
     <t>negative case - invalid phone number and password</t>
   </si>
@@ -1107,6 +1107,24 @@
   </si>
   <si>
     <t>+6281252930451</t>
+  </si>
+  <si>
+    <t>+6281252930362</t>
+  </si>
+  <si>
+    <t>testregisterbackend23@gmail.com</t>
+  </si>
+  <si>
+    <t>+6281252930362 ----</t>
+  </si>
+  <si>
+    <t>signup is successfully</t>
+  </si>
+  <si>
+    <t>No message available</t>
+  </si>
+  <si>
+    <t>Transacstion successfully</t>
   </si>
 </sst>
 </file>
@@ -1569,7 +1587,7 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>346</v>
+        <v>235</v>
       </c>
       <c r="F5" t="s">
         <v>4</v>
@@ -3705,7 +3723,7 @@
         <v>254</v>
       </c>
       <c r="E6" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F6" t="s">
         <v>56</v>
@@ -3755,7 +3773,7 @@
         <v>254</v>
       </c>
       <c r="E7" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F7" t="s">
         <v>56</v>
@@ -3805,7 +3823,7 @@
         <v>254</v>
       </c>
       <c r="E8" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F8" t="s">
         <v>6</v>
@@ -3855,7 +3873,7 @@
         <v>254</v>
       </c>
       <c r="E9" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F9" t="s">
         <v>6</v>
@@ -3902,7 +3920,7 @@
         <v>169</v>
       </c>
       <c r="D10" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E10" t="s">
         <v>1</v>
@@ -3952,7 +3970,7 @@
         <v>169</v>
       </c>
       <c r="D11" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E11" t="s">
         <v>1</v>
@@ -4002,7 +4020,7 @@
         <v>169</v>
       </c>
       <c r="D12" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E12" t="s">
         <v>1</v>
@@ -4052,7 +4070,7 @@
         <v>169</v>
       </c>
       <c r="D13" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E13" t="s">
         <v>1</v>
@@ -4102,10 +4120,10 @@
         <v>169</v>
       </c>
       <c r="D14" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E14" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F14" t="s">
         <v>56</v>
@@ -4152,10 +4170,10 @@
         <v>169</v>
       </c>
       <c r="D15" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E15" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F15" t="s">
         <v>56</v>
@@ -4202,10 +4220,10 @@
         <v>169</v>
       </c>
       <c r="D16" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E16" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F16" t="s">
         <v>6</v>
@@ -4252,10 +4270,10 @@
         <v>169</v>
       </c>
       <c r="D17" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E17" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F17" t="s">
         <v>6</v>
@@ -4505,7 +4523,7 @@
         <v>254</v>
       </c>
       <c r="E22" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F22" t="s">
         <v>56</v>
@@ -4555,7 +4573,7 @@
         <v>254</v>
       </c>
       <c r="E23" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F23" t="s">
         <v>56</v>
@@ -4605,7 +4623,7 @@
         <v>254</v>
       </c>
       <c r="E24" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F24" t="s">
         <v>6</v>
@@ -4655,7 +4673,7 @@
         <v>254</v>
       </c>
       <c r="E25" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F25" t="s">
         <v>6</v>
@@ -4702,7 +4720,7 @@
         <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E26" t="s">
         <v>1</v>
@@ -4752,7 +4770,7 @@
         <v>57</v>
       </c>
       <c r="D27" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E27" t="s">
         <v>1</v>
@@ -4802,7 +4820,7 @@
         <v>57</v>
       </c>
       <c r="D28" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E28" t="s">
         <v>1</v>
@@ -4852,7 +4870,7 @@
         <v>57</v>
       </c>
       <c r="D29" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E29" t="s">
         <v>1</v>
@@ -4902,10 +4920,10 @@
         <v>57</v>
       </c>
       <c r="D30" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E30" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F30" t="s">
         <v>56</v>
@@ -4952,10 +4970,10 @@
         <v>57</v>
       </c>
       <c r="D31" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E31" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F31" t="s">
         <v>56</v>
@@ -5002,10 +5020,10 @@
         <v>57</v>
       </c>
       <c r="D32" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E32" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F32" t="s">
         <v>6</v>
@@ -5052,10 +5070,10 @@
         <v>57</v>
       </c>
       <c r="D33" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E33" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F33" t="s">
         <v>6</v>
@@ -5305,7 +5323,7 @@
         <v>254</v>
       </c>
       <c r="E38" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F38" t="s">
         <v>56</v>
@@ -5355,7 +5373,7 @@
         <v>254</v>
       </c>
       <c r="E39" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F39" t="s">
         <v>56</v>
@@ -5405,7 +5423,7 @@
         <v>254</v>
       </c>
       <c r="E40" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F40" t="s">
         <v>6</v>
@@ -5455,7 +5473,7 @@
         <v>254</v>
       </c>
       <c r="E41" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F41" t="s">
         <v>6</v>
@@ -5502,7 +5520,7 @@
         <v>169</v>
       </c>
       <c r="D42" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E42" t="s">
         <v>1</v>
@@ -5552,7 +5570,7 @@
         <v>169</v>
       </c>
       <c r="D43" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E43" t="s">
         <v>1</v>
@@ -5602,7 +5620,7 @@
         <v>169</v>
       </c>
       <c r="D44" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E44" t="s">
         <v>1</v>
@@ -5652,7 +5670,7 @@
         <v>169</v>
       </c>
       <c r="D45" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E45" t="s">
         <v>1</v>
@@ -5702,10 +5720,10 @@
         <v>169</v>
       </c>
       <c r="D46" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E46" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F46" t="s">
         <v>56</v>
@@ -5752,10 +5770,10 @@
         <v>169</v>
       </c>
       <c r="D47" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E47" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F47" t="s">
         <v>56</v>
@@ -5802,10 +5820,10 @@
         <v>169</v>
       </c>
       <c r="D48" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E48" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F48" t="s">
         <v>6</v>
@@ -5852,10 +5870,10 @@
         <v>169</v>
       </c>
       <c r="D49" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E49" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F49" t="s">
         <v>6</v>
@@ -6105,7 +6123,7 @@
         <v>254</v>
       </c>
       <c r="E54" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F54" t="s">
         <v>56</v>
@@ -6155,7 +6173,7 @@
         <v>254</v>
       </c>
       <c r="E55" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F55" t="s">
         <v>56</v>
@@ -6205,7 +6223,7 @@
         <v>254</v>
       </c>
       <c r="E56" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F56" t="s">
         <v>6</v>
@@ -6255,7 +6273,7 @@
         <v>254</v>
       </c>
       <c r="E57" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F57" t="s">
         <v>6</v>
@@ -6302,7 +6320,7 @@
         <v>57</v>
       </c>
       <c r="D58" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E58" t="s">
         <v>1</v>
@@ -6352,7 +6370,7 @@
         <v>57</v>
       </c>
       <c r="D59" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E59" t="s">
         <v>1</v>
@@ -6402,7 +6420,7 @@
         <v>57</v>
       </c>
       <c r="D60" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E60" t="s">
         <v>1</v>
@@ -6452,7 +6470,7 @@
         <v>57</v>
       </c>
       <c r="D61" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E61" t="s">
         <v>1</v>
@@ -6502,10 +6520,10 @@
         <v>57</v>
       </c>
       <c r="D62" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E62" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F62" t="s">
         <v>56</v>
@@ -6552,10 +6570,10 @@
         <v>57</v>
       </c>
       <c r="D63" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E63" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F63" t="s">
         <v>56</v>
@@ -6602,10 +6620,10 @@
         <v>57</v>
       </c>
       <c r="D64" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E64" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F64" t="s">
         <v>6</v>
@@ -6652,10 +6670,10 @@
         <v>57</v>
       </c>
       <c r="D65" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E65" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F65" t="s">
         <v>6</v>
@@ -6667,7 +6685,7 @@
         <v>14</v>
       </c>
       <c r="I65" t="s">
-        <v>14</v>
+        <v>357</v>
       </c>
       <c r="J65" t="s">
         <v>60</v>
@@ -6685,7 +6703,7 @@
         <v>14</v>
       </c>
       <c r="O65" t="s">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="P65" t="s">
         <v>4</v>
@@ -6702,10 +6720,10 @@
         <v>57</v>
       </c>
       <c r="D66" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E66" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F66" t="s">
         <v>6</v>
@@ -6752,10 +6770,10 @@
         <v>57</v>
       </c>
       <c r="D67" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E67" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F67" t="s">
         <v>6</v>
@@ -6802,10 +6820,10 @@
         <v>57</v>
       </c>
       <c r="D68" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E68" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F68" t="s">
         <v>6</v>
@@ -6852,10 +6870,10 @@
         <v>49</v>
       </c>
       <c r="D69" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E69" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F69" t="s">
         <v>6</v>
@@ -6902,10 +6920,10 @@
         <v>51</v>
       </c>
       <c r="D70" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E70" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F70" t="s">
         <v>6</v>
@@ -6917,7 +6935,7 @@
         <v>2</v>
       </c>
       <c r="I70" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="J70" t="s">
         <v>50</v>
@@ -6952,10 +6970,10 @@
         <v>54</v>
       </c>
       <c r="D71" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E71" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F71" t="s">
         <v>6</v>
@@ -7002,10 +7020,10 @@
         <v>57</v>
       </c>
       <c r="D72" t="s">
-        <v>338</v>
+        <v>254</v>
       </c>
       <c r="E72" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F72" t="s">
         <v>6</v>
@@ -7038,7 +7056,7 @@
         <v>50</v>
       </c>
       <c r="P72" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73">
@@ -7052,7 +7070,7 @@
         <v>57</v>
       </c>
       <c r="D73" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E73" t="s">
         <v>1</v>
@@ -7102,7 +7120,7 @@
         <v>57</v>
       </c>
       <c r="D74" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E74" t="s">
         <v>166</v>
@@ -7152,7 +7170,7 @@
         <v>57</v>
       </c>
       <c r="D75" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E75" t="s">
         <v>17</v>
@@ -7202,7 +7220,7 @@
         <v>57</v>
       </c>
       <c r="D76" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E76" t="s">
         <v>19</v>
@@ -7252,7 +7270,7 @@
         <v>57</v>
       </c>
       <c r="D77" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E77" t="s">
         <v>21</v>
@@ -7302,10 +7320,10 @@
         <v>57</v>
       </c>
       <c r="D78" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E78" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F78" t="s">
         <v>23</v>
@@ -7352,10 +7370,10 @@
         <v>57</v>
       </c>
       <c r="D79" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E79" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F79" t="s">
         <v>59</v>
@@ -7402,10 +7420,10 @@
         <v>57</v>
       </c>
       <c r="D80" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E80" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F80" t="s">
         <v>27</v>
@@ -7452,10 +7470,10 @@
         <v>57</v>
       </c>
       <c r="D81" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E81" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F81" t="s">
         <v>29</v>
@@ -7502,10 +7520,10 @@
         <v>57</v>
       </c>
       <c r="D82" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E82" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F82" t="s">
         <v>31</v>
@@ -7552,10 +7570,10 @@
         <v>57</v>
       </c>
       <c r="D83" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E83" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F83" t="s">
         <v>33</v>
@@ -7602,10 +7620,10 @@
         <v>57</v>
       </c>
       <c r="D84" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E84" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F84" t="s">
         <v>6</v>
@@ -7652,10 +7670,10 @@
         <v>57</v>
       </c>
       <c r="D85" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E85" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F85" t="s">
         <v>6</v>
@@ -7702,10 +7720,10 @@
         <v>57</v>
       </c>
       <c r="D86" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E86" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F86" t="s">
         <v>6</v>
@@ -7752,10 +7770,10 @@
         <v>57</v>
       </c>
       <c r="D87" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E87" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F87" t="s">
         <v>6</v>
@@ -7802,10 +7820,10 @@
         <v>57</v>
       </c>
       <c r="D88" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E88" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F88" t="s">
         <v>6</v>
@@ -7852,10 +7870,10 @@
         <v>57</v>
       </c>
       <c r="D89" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E89" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F89" t="s">
         <v>6</v>
@@ -7902,10 +7920,10 @@
         <v>57</v>
       </c>
       <c r="D90" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E90" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F90" t="s">
         <v>6</v>
@@ -7917,7 +7935,7 @@
         <v>14</v>
       </c>
       <c r="I90" t="s">
-        <v>14</v>
+        <v>357</v>
       </c>
       <c r="J90" t="s">
         <v>60</v>
@@ -7952,10 +7970,10 @@
         <v>57</v>
       </c>
       <c r="D91" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E91" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F91" t="s">
         <v>6</v>
@@ -7967,7 +7985,7 @@
         <v>14</v>
       </c>
       <c r="I91" t="s">
-        <v>14</v>
+        <v>357</v>
       </c>
       <c r="J91" t="s">
         <v>60</v>
@@ -8002,10 +8020,10 @@
         <v>57</v>
       </c>
       <c r="D92" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E92" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F92" t="s">
         <v>6</v>
@@ -8017,7 +8035,7 @@
         <v>14</v>
       </c>
       <c r="I92" t="s">
-        <v>14</v>
+        <v>357</v>
       </c>
       <c r="J92" t="s">
         <v>60</v>
@@ -8052,10 +8070,10 @@
         <v>57</v>
       </c>
       <c r="D93" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E93" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F93" t="s">
         <v>6</v>
@@ -8067,7 +8085,7 @@
         <v>14</v>
       </c>
       <c r="I93" t="s">
-        <v>14</v>
+        <v>357</v>
       </c>
       <c r="J93" t="s">
         <v>60</v>
@@ -8085,7 +8103,7 @@
         <v>14</v>
       </c>
       <c r="O93" t="s">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="P93" t="s">
         <v>4</v>
@@ -8102,10 +8120,10 @@
         <v>57</v>
       </c>
       <c r="D94" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E94" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F94" t="s">
         <v>6</v>
@@ -8117,7 +8135,7 @@
         <v>14</v>
       </c>
       <c r="I94" t="s">
-        <v>14</v>
+        <v>357</v>
       </c>
       <c r="J94" t="s">
         <v>60</v>
@@ -8152,10 +8170,10 @@
         <v>57</v>
       </c>
       <c r="D95" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E95" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F95" t="s">
         <v>6</v>
@@ -8167,7 +8185,7 @@
         <v>14</v>
       </c>
       <c r="I95" t="s">
-        <v>14</v>
+        <v>357</v>
       </c>
       <c r="J95" t="s">
         <v>60</v>
@@ -8202,10 +8220,10 @@
         <v>57</v>
       </c>
       <c r="D96" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E96" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F96" t="s">
         <v>6</v>
@@ -8217,7 +8235,7 @@
         <v>14</v>
       </c>
       <c r="I96" t="s">
-        <v>14</v>
+        <v>357</v>
       </c>
       <c r="J96" t="s">
         <v>60</v>
@@ -8252,10 +8270,10 @@
         <v>57</v>
       </c>
       <c r="D97" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E97" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F97" t="s">
         <v>6</v>
@@ -8267,7 +8285,7 @@
         <v>14</v>
       </c>
       <c r="I97" t="s">
-        <v>14</v>
+        <v>357</v>
       </c>
       <c r="J97" t="s">
         <v>60</v>
@@ -8302,10 +8320,10 @@
         <v>57</v>
       </c>
       <c r="D98" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E98" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F98" t="s">
         <v>6</v>
@@ -8317,7 +8335,7 @@
         <v>14</v>
       </c>
       <c r="I98" t="s">
-        <v>14</v>
+        <v>357</v>
       </c>
       <c r="J98" t="s">
         <v>60</v>
@@ -8338,7 +8356,7 @@
         <v>327</v>
       </c>
       <c r="P98" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99">
@@ -8352,10 +8370,10 @@
         <v>57</v>
       </c>
       <c r="D99" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E99" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F99" t="s">
         <v>6</v>
@@ -8367,7 +8385,7 @@
         <v>14</v>
       </c>
       <c r="I99" t="s">
-        <v>14</v>
+        <v>357</v>
       </c>
       <c r="J99" t="s">
         <v>75</v>
@@ -8385,10 +8403,10 @@
         <v>14</v>
       </c>
       <c r="O99" t="s">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="P99" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100">
@@ -8402,10 +8420,10 @@
         <v>57</v>
       </c>
       <c r="D100" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E100" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="F100" t="s">
         <v>6</v>
@@ -8417,7 +8435,7 @@
         <v>14</v>
       </c>
       <c r="I100" t="s">
-        <v>14</v>
+        <v>357</v>
       </c>
       <c r="J100" t="s">
         <v>75</v>
@@ -8435,10 +8453,10 @@
         <v>171</v>
       </c>
       <c r="O100" t="s">
-        <v>172</v>
+        <v>359</v>
       </c>
       <c r="P100" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101">
@@ -16837,7 +16855,7 @@
         <v>2</v>
       </c>
       <c r="N53" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="O53" t="s">
         <v>50</v>
@@ -16893,7 +16911,7 @@
         <v>2</v>
       </c>
       <c r="N54" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="O54" t="s">
         <v>50</v>
@@ -16949,7 +16967,7 @@
         <v>2</v>
       </c>
       <c r="N55" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="O55" t="s">
         <v>50</v>
@@ -17350,7 +17368,7 @@
         <v>14</v>
       </c>
       <c r="Q62" t="s">
-        <v>14</v>
+        <v>360</v>
       </c>
       <c r="R62" t="s">
         <v>4</v>
@@ -17509,7 +17527,7 @@
         <v>2</v>
       </c>
       <c r="N65" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="O65" t="s">
         <v>50</v>
@@ -17565,7 +17583,7 @@
         <v>2</v>
       </c>
       <c r="N66" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="O66" t="s">
         <v>50</v>
@@ -17621,7 +17639,7 @@
         <v>2</v>
       </c>
       <c r="N67" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="O67" t="s">
         <v>50</v>

--- a/test-output/QuotaAppReport.xlsx
+++ b/test-output/QuotaAppReport.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42957" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43017" uniqueCount="361">
   <si>
     <t>negative case - invalid phone number and password</t>
   </si>

--- a/test-output/QuotaAppReport.xlsx
+++ b/test-output/QuotaAppReport.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43017" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43647" uniqueCount="361">
   <si>
     <t>negative case - invalid phone number and password</t>
   </si>
